--- a/mapping/mml_report_mapping.xlsx
+++ b/mapping/mml_report_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="353">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -932,12 +932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.mml_report_metadata.v1 and name/value='MML Report module meta-data']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.mml_report_metadata.v1 and name/value='MML Report module meta-data']/items[at0002]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-COMPOSITION.report-result.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -946,35 +940,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/context/other_context[at0001]/items[at0005]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-INSTRUCTION.request.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Service requested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
-  </si>
-  <si>
-    <t>Description of service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.problem_diagnosis.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Body Site</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Name of the organisation</t>
   </si>
   <si>
@@ -1002,58 +975,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0011]</t>
-  </si>
-  <si>
     <t>Professional Identifier</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0012]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='supervisor']/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='supervisor']/items[at0003]/items[at0011]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='performer']/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='performer']/items[at0003]/items[at0011]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.reason_for_encounter.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1062,30 +987,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.reason_for_encounter.v1 and name/value='Chief complaints']/data[at0001]/items[at0004 and name/value='Presenting Problem']</t>
-  </si>
-  <si>
     <t>Reason for request</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0065]</t>
-  </si>
-  <si>
     <t>Problem/Diagnosis</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>Descfription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0009]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.citation.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1094,9 +1003,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1105,7 +1011,238 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]</t>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.mml_report_metadata.v1 and name/value='MML Report module meta-data']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.mml_report_metadata.v1 and name/value='MML Report module meta-data']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/term_mappings/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/term_mappings/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/term_mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"="で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/term_mappings/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/term_mappings/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/term_mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/value/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/term_mappings/defining_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/term_mappings/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/term_mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anatomical location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/diagnosis']/data[at0001]/items[at0012 and name/value='Anatomical location']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0011]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0011]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0.22]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Ward']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='performer']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='performer']/items[at0003]/items[at0.22]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='supervisor']/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='supervisor']/items[at0003]/items[at0011.2 and name/value='Professional Identifier']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='supervisor']/items[at0003]/items[at0.22]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.reason_for_encounter.v1 and name/value='Chief complaints']/data[at0001]/items[at0004 and name/value='Presenting problem']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0062]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/diagnosis']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clinical descfription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/diagnosis']/data[at0001]/items[at0009]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1536,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K391"/>
+  <dimension ref="A1:L394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:J57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1549,16 +1686,17 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="33.125" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
@@ -1570,10 +1708,13 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>199</v>
@@ -1591,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1603,13 +1744,14 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1624,8 +1766,9 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1644,12 +1787,15 @@
       <c r="I6" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -1666,12 +1812,15 @@
       <c r="I7" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1685,17 +1834,20 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="H8" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -1713,9 +1865,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K9" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1730,58 +1885,61 @@
       <c r="F10" s="3"/>
       <c r="H10" s="12"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="H11" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>210</v>
-      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -1789,194 +1947,193 @@
       <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="K13" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="I16" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="H17" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="H20" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="H19" t="s">
-        <v>291</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="I20" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
@@ -1987,21 +2144,24 @@
       </c>
       <c r="F22" s="3"/>
       <c r="H22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -2009,22 +2169,23 @@
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="I23" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -2032,21 +2193,26 @@
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="I24" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -2057,21 +2223,24 @@
       </c>
       <c r="F25" s="3"/>
       <c r="H25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -2080,21 +2249,24 @@
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -2104,19 +2276,22 @@
       </c>
       <c r="F27" s="3"/>
       <c r="I27" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
@@ -2126,22 +2301,25 @@
         <v>8</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="H28" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="H28" t="s">
+        <v>283</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -2152,22 +2330,22 @@
       <c r="F29" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>292</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -2176,171 +2354,200 @@
         <v>18</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I30" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="3"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="H31" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" t="s">
-        <v>291</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>300</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="H35" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J35" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K35" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="I36" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="I37" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -2351,21 +2558,24 @@
       </c>
       <c r="F38" s="3"/>
       <c r="H38" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -2374,21 +2584,24 @@
         <v>18</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -2398,251 +2611,282 @@
       </c>
       <c r="F40" s="3"/>
       <c r="I40" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F41" s="3"/>
-      <c r="H41" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J41" t="s">
-        <v>310</v>
-      </c>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="H41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>292</v>
-      </c>
       <c r="I42" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I43" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="H44" s="12" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K44" t="s">
+        <v>338</v>
+      </c>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>216</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I46" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="H47" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="H48" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="H49" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="H50" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
@@ -2653,334 +2897,401 @@
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F52" s="3"/>
       <c r="H52" s="12" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F53" s="3"/>
       <c r="H53" s="12" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>267</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="H54" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="H55" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="H56" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="H57" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="H60" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H62" s="12"/>
-      <c r="I62" s="4"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B183" s="3" t="s">
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H65" s="12"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B184" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B185" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F187" s="3"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D189" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D190" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B193" s="3"/>
-      <c r="C193" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="193" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B193" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B194" s="3"/>
-      <c r="C194" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B194" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
@@ -2988,125 +3299,116 @@
       <c r="E196" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="F196" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B198" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C199" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C200" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="3" t="s">
+      <c r="D200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C198" s="3" t="s">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C201" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E201" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C199" s="3" t="s">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C202" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="3" t="s">
+      <c r="D202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F202" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H199" s="4"/>
-    </row>
-    <row r="200" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B200" s="3" t="s">
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B203" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F200" s="3"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B201" s="3" t="s">
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B204" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="H201" t="s">
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="H204" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B202" s="3"/>
-      <c r="C202" s="3" t="s">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B203" s="3"/>
-      <c r="C203" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F203" s="3"/>
-      <c r="I203" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B204" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" s="3"/>
-      <c r="I204" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C205" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
@@ -3114,292 +3416,309 @@
       <c r="E205" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="F205" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I205" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="3"/>
+      <c r="I206" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B207" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="3"/>
+      <c r="I207" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C208" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I208" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C206" s="3" t="s">
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C209" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="3" t="s">
+      <c r="D209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F206" s="3"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C207" s="3" t="s">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C210" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D210" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E210" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="H207" t="s">
+      <c r="F210" s="3"/>
+      <c r="H210" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B208" s="3"/>
-      <c r="C208" s="3" t="s">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D208" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="3" t="s">
+      <c r="D211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F211" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I208" s="6" t="s">
+      <c r="I211" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B209" s="3" t="s">
+      <c r="J211" s="6"/>
+    </row>
+    <row r="212" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B212" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="I209" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B210" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="3"/>
-      <c r="I210" s="7"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B211" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="I211" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B212" s="3"/>
-      <c r="C212" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="I212" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B213" s="3"/>
-      <c r="C213" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="3"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="7"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B214" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="I214" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J214" s="6"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B214" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F214" s="3"/>
-      <c r="I214" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B215" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F215" s="3"/>
       <c r="I215" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B217" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="3"/>
+      <c r="I217" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J217" s="4"/>
+    </row>
+    <row r="218" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B218" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="3"/>
+      <c r="I218" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B216" s="3" t="s">
+      <c r="J218" s="4"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B219" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B217" s="3"/>
-      <c r="C217" s="3" t="s">
+      <c r="C219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="3" t="s">
+      <c r="D220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F217" s="3"/>
-      <c r="H217" t="s">
+      <c r="F220" s="3"/>
+      <c r="H220" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B218" s="3"/>
-      <c r="C218" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F218" s="3"/>
-      <c r="I218" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B219" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F219" s="3"/>
-      <c r="I219" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B220" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I220" s="7"/>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="3"/>
       <c r="C221" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F221" s="3"/>
       <c r="I221" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="J221" s="6"/>
+    </row>
+    <row r="222" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B222" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C222" s="3"/>
-      <c r="D222" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D222" s="3"/>
       <c r="E222" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F222" s="3"/>
       <c r="I222" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J222" s="4"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B223" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F223" s="3"/>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B224" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C224" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I223" s="7"/>
+      <c r="J223" s="7"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D224" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I224" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="F224" s="3"/>
+      <c r="I224" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J224" s="6"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
@@ -3410,424 +3729,438 @@
       </c>
       <c r="F225" s="3"/>
       <c r="I225" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J225" s="4"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B226" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B227" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J227" s="4"/>
+    </row>
+    <row r="228" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B228" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="3"/>
+      <c r="I228" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="226" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B226" s="3" t="s">
+      <c r="J228" s="4"/>
+    </row>
+    <row r="229" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B229" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F226" s="3"/>
-      <c r="H226" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B227" s="3"/>
-      <c r="C227" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F227" s="3"/>
-      <c r="I227" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B228" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B229" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="3"/>
+      <c r="H229" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="I230" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F229" s="3"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B230" s="3" t="s">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B233" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B231" s="3"/>
-      <c r="C231" s="3" t="s">
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D231" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="3" t="s">
+      <c r="D234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F231" s="3"/>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B232" s="3"/>
-      <c r="C232" s="3" t="s">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="3" t="s">
+      <c r="D235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F232" s="3"/>
-      <c r="I232" t="s">
+      <c r="F235" s="3"/>
+      <c r="I235" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B233" s="3" t="s">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B236" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B234" s="3" t="s">
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B237" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3" t="s">
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F234" s="3"/>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B235" s="3" t="s">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B238" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B236" s="3"/>
-      <c r="C236" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F236" s="3"/>
-      <c r="I236" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B237" s="3"/>
-      <c r="C237" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B238" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E238" s="3"/>
       <c r="F238" s="3"/>
-      <c r="I238" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B239" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E239" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F239" s="3"/>
       <c r="I239" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J239" s="4"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B241" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="3"/>
+      <c r="I241" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B242" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="3"/>
+      <c r="I242" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B240" s="3" t="s">
+      <c r="J242" s="4"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B243" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F240" s="3"/>
-      <c r="I240" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B241" s="3"/>
-      <c r="C241" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B242" s="3"/>
-      <c r="C242" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F242" s="3"/>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B243" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="E243" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F243" s="3"/>
       <c r="I243" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J243" s="4"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="I246" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B244" s="3" t="s">
+      <c r="J246" s="4"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B247" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B245" s="3" t="s">
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B248" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="H245" t="s">
+      <c r="C248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="H248" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B246" s="3"/>
-      <c r="C246" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F246" s="3"/>
-      <c r="I246" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B247" s="3"/>
-      <c r="C247" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F247" s="3"/>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B248" s="3"/>
-      <c r="C248" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F248" s="3"/>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B249" s="3"/>
       <c r="C249" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E249" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="I249" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F249" s="3"/>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B250" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="H250" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B251" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F251" s="3"/>
-      <c r="I251" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B252" s="3"/>
       <c r="C252" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B253" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="H253" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B254" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="I254" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E252" s="3" t="s">
+      <c r="D255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B253" s="3"/>
-      <c r="C253" s="3" t="s">
+    <row r="256" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" s="3" t="s">
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F253" s="3"/>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B254" s="3" t="s">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B257" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="H254" t="s">
-        <v>57</v>
-      </c>
-      <c r="I254" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B255" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-    </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B256" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F256" s="3"/>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B257" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
@@ -3836,31 +4169,26 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="H257" t="s">
-        <v>108</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I257" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B258" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E258" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E258" s="3"/>
       <c r="F258" s="3"/>
-      <c r="I258" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B259" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
@@ -3871,78 +4199,85 @@
       </c>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B260" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="H260" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J260" s="4"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B261" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F261" s="3"/>
       <c r="I261" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B262" s="3"/>
-      <c r="C262" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B262" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B263" s="3"/>
-      <c r="C263" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B263" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H263" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B264" s="3" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F264" s="3"/>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I264" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B265" s="3"/>
       <c r="C265" s="3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>7</v>
@@ -3950,132 +4285,125 @@
       <c r="E265" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F265" s="8" t="s">
+      <c r="F265" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B266" s="3"/>
       <c r="C266" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B267" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C268" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C269" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="3" t="s">
+      <c r="D269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F266" s="3"/>
-    </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C267" s="3" t="s">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C270" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F267" s="3"/>
-      <c r="H267" t="s">
+      <c r="F270" s="3"/>
+      <c r="H270" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C268" s="3" t="s">
+    <row r="271" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C271" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" s="3" t="s">
+      <c r="D271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F268" s="3" t="s">
+      <c r="F271" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I268" s="9" t="s">
+      <c r="I271" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B269" s="3" t="s">
+      <c r="J271" s="9"/>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B272" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B270" s="3" t="s">
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B273" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="3"/>
-      <c r="I270" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B271" s="3"/>
-      <c r="C271" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I271" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B272" s="3"/>
-      <c r="C272" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F272" s="3"/>
-      <c r="I272" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B273" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F273" s="3"/>
-      <c r="I273" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I273" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J273" s="4"/>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B274" s="3"/>
       <c r="C274" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>7</v>
@@ -4083,186 +4411,193 @@
       <c r="E274" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F274" s="8" t="s">
+      <c r="F274" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I274" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B275" s="3"/>
+      <c r="C275" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F275" s="3"/>
+      <c r="I275" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B276" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" s="3"/>
+      <c r="I276" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C277" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I277" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C275" s="3" t="s">
+    <row r="278" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C278" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D275" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="3" t="s">
+      <c r="D278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F275" s="3"/>
-      <c r="I275" s="5" t="s">
+      <c r="F278" s="3"/>
+      <c r="I278" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C276" s="3" t="s">
+      <c r="J278" s="5"/>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C279" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E279" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F276" s="3"/>
-      <c r="H276" t="s">
+      <c r="F279" s="3"/>
+      <c r="H279" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C277" s="3" t="s">
+    <row r="280" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C280" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D277" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" s="3" t="s">
+      <c r="D280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F277" s="3" t="s">
+      <c r="F280" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I277" s="6" t="s">
+      <c r="I280" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B278" s="3" t="s">
+      <c r="J280" s="6"/>
+    </row>
+    <row r="281" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B281" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F278" s="3"/>
-      <c r="I278" s="4" t="s">
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="3"/>
+      <c r="I281" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B279" s="3" t="s">
+      <c r="J281" s="4"/>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B282" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3" t="s">
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F279" s="3"/>
-      <c r="I279" s="7"/>
-    </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B280" s="10"/>
-      <c r="C280" s="10" t="s">
+      <c r="F282" s="3"/>
+      <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B283" s="10"/>
+      <c r="C283" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D280" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E280" s="10" t="s">
+      <c r="D283" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F280" s="10" t="s">
+      <c r="F283" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I280" s="6" t="s">
+      <c r="I283" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B281" s="10"/>
-      <c r="C281" s="10" t="s">
+      <c r="J283" s="6"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B284" s="10"/>
+      <c r="C284" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D281" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E281" s="10" t="s">
+      <c r="D284" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F281" s="10" t="s">
+      <c r="F284" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I281" s="4" t="s">
+      <c r="I284" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B282" s="10"/>
-      <c r="C282" s="10" t="s">
+      <c r="J284" s="4"/>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B285" s="10"/>
+      <c r="C285" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D282" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E282" s="10" t="s">
+      <c r="D285" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F282" s="10"/>
-    </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B283" s="10" t="s">
+      <c r="F285" s="10"/>
+    </row>
+    <row r="286" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B286" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F283" s="10"/>
-      <c r="I283" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B284" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E284" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F284" s="10"/>
-      <c r="I284" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B285" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E285" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F285" s="10"/>
-      <c r="H285" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B286" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="C286" s="10"/>
       <c r="D286" s="10" t="s">
@@ -4272,13 +4607,14 @@
         <v>8</v>
       </c>
       <c r="F286" s="10"/>
-      <c r="I286" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I286" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J286" s="4"/>
+    </row>
+    <row r="287" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B287" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C287" s="10"/>
       <c r="D287" s="10" t="s">
@@ -4289,12 +4625,13 @@
       </c>
       <c r="F287" s="10"/>
       <c r="I287" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="J287" s="4"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B288" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C288" s="10"/>
       <c r="D288" s="10" t="s">
@@ -4304,11 +4641,13 @@
         <v>8</v>
       </c>
       <c r="F288" s="10"/>
-      <c r="I288" s="7"/>
-    </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H288" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B289" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C289" s="10"/>
       <c r="D289" s="10" t="s">
@@ -4319,130 +4658,138 @@
       </c>
       <c r="F289" s="10"/>
       <c r="I289" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J289" s="6"/>
+    </row>
+    <row r="290" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B290" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" s="10"/>
+      <c r="I290" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J290" s="4"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B291" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C291" s="10"/>
+      <c r="D291" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" s="10"/>
+      <c r="I291" s="7"/>
+      <c r="J291" s="7"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B292" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" s="10"/>
+      <c r="I292" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B290" s="3" t="s">
+      <c r="J292" s="6"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B293" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F290" s="3"/>
-      <c r="I290" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B291" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" s="3"/>
-    </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B292" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F292" s="3"/>
-      <c r="I292" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B293" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F293" s="3"/>
       <c r="I293" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J293" s="4"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B294" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B295" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" s="3"/>
+      <c r="I295" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J295" s="4"/>
+    </row>
+    <row r="296" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B296" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F296" s="3"/>
+      <c r="I296" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B294" s="3"/>
-      <c r="C294" s="3" t="s">
+      <c r="J296" s="4"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D294" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E294" s="3" t="s">
+      <c r="D297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F297" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H294" t="s">
+      <c r="H297" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B295" s="3" t="s">
+    <row r="298" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B298" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F295" s="3"/>
-    </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B296" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F296" s="3"/>
-      <c r="I296" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B297" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F297" s="3"/>
-      <c r="I297" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B298" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3" t="s">
@@ -4452,11 +4799,10 @@
         <v>8</v>
       </c>
       <c r="F298" s="3"/>
-      <c r="I298" s="11"/>
-    </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B299" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
@@ -4466,13 +4812,14 @@
         <v>8</v>
       </c>
       <c r="F299" s="3"/>
-      <c r="I299" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I299" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J299" s="11"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B300" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
@@ -4482,13 +4829,14 @@
         <v>8</v>
       </c>
       <c r="F300" s="3"/>
-      <c r="I300" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I300" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J300" s="11"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B301" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
@@ -4498,117 +4846,123 @@
         <v>8</v>
       </c>
       <c r="F301" s="3"/>
-      <c r="I301" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B302" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="F302" s="3"/>
       <c r="I302" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="303" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B303" s="3" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
+      <c r="D303" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E303" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F303" s="3"/>
       <c r="I303" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B304" s="3" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F304" s="3"/>
       <c r="I304" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B305" s="3"/>
-      <c r="C305" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B305" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="F305" s="3"/>
       <c r="I305" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B306" s="3"/>
-      <c r="C306" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B306" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
       <c r="E306" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F306" s="3"/>
-      <c r="H306" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I306" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B307" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
+      <c r="D307" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E307" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F307" s="3"/>
       <c r="I307" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B308" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E308" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F308" s="3"/>
-    </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I308" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>7</v>
@@ -4616,234 +4970,241 @@
       <c r="E309" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F309" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F309" s="3"/>
       <c r="H309" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B310" s="3"/>
-      <c r="C310" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B310" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
       <c r="E310" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F310" s="3"/>
-      <c r="I310" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I310" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B311" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
+      <c r="E311" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F311" s="3"/>
-      <c r="I311" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B312" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="I312" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B313" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C313" s="3"/>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H312" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="313" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D313" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E313" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F313" s="3"/>
-      <c r="I313" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B314" s="3"/>
-      <c r="C314" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="I313" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J313" s="4"/>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B314" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
       <c r="F314" s="3"/>
       <c r="I314" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B315" s="3"/>
-      <c r="C315" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="315" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B315" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
       <c r="F315" s="3"/>
-      <c r="I315" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B316" s="3"/>
-      <c r="C316" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="I315" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J315" s="5"/>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B316" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C316" s="3"/>
       <c r="D316" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E316" s="3"/>
       <c r="F316" s="3"/>
       <c r="I316" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B317" s="3"/>
       <c r="C317" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E317" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F317" s="3"/>
+      <c r="I317" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F318" s="3"/>
+      <c r="I318" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E319" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F317" s="3"/>
-      <c r="I317" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B318" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="H318" t="s">
-        <v>190</v>
-      </c>
-      <c r="I318" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B319" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F319" s="3"/>
-    </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I319" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B320" s="3"/>
       <c r="C320" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F320" s="3"/>
+      <c r="I320" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J320" s="5"/>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B321" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="H321" t="s">
+        <v>190</v>
+      </c>
+      <c r="I321" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J321" s="4"/>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B322" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E320" s="3" t="s">
+      <c r="D323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F320" s="3" t="s">
+      <c r="F323" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H320" t="s">
+      <c r="H323" t="s">
         <v>104</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I323" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B321" s="3"/>
-      <c r="C321" s="3" t="s">
+    <row r="324" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D321" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E321" s="3" t="s">
+      <c r="D324" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F321" s="3"/>
-      <c r="I321" s="4"/>
-    </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B322" s="3" t="s">
+      <c r="F324" s="3"/>
+      <c r="I324" s="4"/>
+      <c r="J324" s="4"/>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B325" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-    </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B323" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C323" s="3"/>
-      <c r="D323" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="I323" s="12"/>
-    </row>
-    <row r="324" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B324" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C324" s="3"/>
-      <c r="D324" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F324" s="3"/>
-      <c r="H324" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B325" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
@@ -4851,32 +5212,23 @@
       </c>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
-      <c r="H325" t="s">
-        <v>108</v>
-      </c>
-      <c r="I325" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B326" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E326" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E326" s="3"/>
       <c r="F326" s="3"/>
-      <c r="I326" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I326" s="12"/>
+      <c r="J326" s="12"/>
+    </row>
+    <row r="327" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B327" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3" t="s">
@@ -4886,80 +5238,91 @@
         <v>8</v>
       </c>
       <c r="F327" s="3"/>
-    </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H327" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B328" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
+      <c r="D328" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="H328" t="s">
-        <v>107</v>
-      </c>
-      <c r="I328" s="12"/>
-    </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="I328" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J328" s="4"/>
+    </row>
+    <row r="329" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B329" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F329" s="3"/>
       <c r="I329" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B330" s="3"/>
-      <c r="C330" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B330" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C330" s="3"/>
       <c r="D330" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B331" s="3"/>
-      <c r="C331" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B331" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
       <c r="F331" s="3"/>
-    </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H331" t="s">
+        <v>107</v>
+      </c>
+      <c r="I331" s="12"/>
+      <c r="J331" s="12"/>
+    </row>
+    <row r="332" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B332" s="3" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F332" s="3"/>
-    </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I332" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B333" s="3"/>
       <c r="C333" s="3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>7</v>
@@ -4967,132 +5330,125 @@
       <c r="E333" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F333" s="8" t="s">
+      <c r="F333" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B334" s="3"/>
       <c r="C334" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B335" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C336" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F336" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C337" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D334" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E334" s="3" t="s">
+      <c r="D337" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F334" s="3"/>
-    </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C335" s="3" t="s">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C338" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E335" s="3" t="s">
+      <c r="E338" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F335" s="3"/>
-      <c r="H335" t="s">
+      <c r="F338" s="3"/>
+      <c r="H338" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C336" s="3" t="s">
+    <row r="339" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C339" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D336" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E336" s="3" t="s">
+      <c r="D339" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="F339" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I336" s="9" t="s">
+      <c r="I339" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B337" s="3" t="s">
+      <c r="J339" s="9"/>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B340" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
-    </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B338" s="3" t="s">
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B341" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F338" s="3"/>
-      <c r="I338" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B339" s="3"/>
-      <c r="C339" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I339" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B340" s="3"/>
-      <c r="C340" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E340" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F340" s="3"/>
-      <c r="I340" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B341" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F341" s="3"/>
-      <c r="I341" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I341" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J341" s="4"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B342" s="3"/>
       <c r="C342" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>7</v>
@@ -5100,186 +5456,193 @@
       <c r="E342" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F342" s="8" t="s">
+      <c r="F342" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I342" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B343" s="3"/>
+      <c r="C343" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F343" s="3"/>
+      <c r="I343" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B344" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" s="3"/>
+      <c r="I344" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C345" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I345" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C343" s="3" t="s">
+    <row r="346" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C346" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D343" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E343" s="3" t="s">
+      <c r="D346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F343" s="3"/>
-      <c r="I343" s="5" t="s">
+      <c r="F346" s="3"/>
+      <c r="I346" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C344" s="3" t="s">
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C347" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D347" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E344" s="3" t="s">
+      <c r="E347" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F344" s="3"/>
-      <c r="H344" t="s">
+      <c r="F347" s="3"/>
+      <c r="H347" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C345" s="3" t="s">
+    <row r="348" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C348" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D345" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E345" s="3" t="s">
+      <c r="D348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F345" s="3" t="s">
+      <c r="F348" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I345" s="6" t="s">
+      <c r="I348" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B346" s="3" t="s">
+      <c r="J348" s="6"/>
+    </row>
+    <row r="349" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B349" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F346" s="3"/>
-      <c r="I346" s="4" t="s">
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349" s="3"/>
+      <c r="I349" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B347" s="3" t="s">
+      <c r="J349" s="4"/>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B350" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3" t="s">
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F347" s="3"/>
-      <c r="I347" s="7"/>
-    </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B348" s="10"/>
-      <c r="C348" s="10" t="s">
+      <c r="F350" s="3"/>
+      <c r="I350" s="7"/>
+      <c r="J350" s="7"/>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B351" s="10"/>
+      <c r="C351" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D348" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E348" s="10" t="s">
+      <c r="D351" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F348" s="10" t="s">
+      <c r="F351" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I348" s="6" t="s">
+      <c r="I351" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B349" s="10"/>
-      <c r="C349" s="10" t="s">
+      <c r="J351" s="6"/>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B352" s="10"/>
+      <c r="C352" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D349" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E349" s="10" t="s">
+      <c r="D352" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F349" s="10" t="s">
+      <c r="F352" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I349" s="4" t="s">
+      <c r="I352" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B350" s="10"/>
-      <c r="C350" s="10" t="s">
+      <c r="J352" s="4"/>
+    </row>
+    <row r="353" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B353" s="10"/>
+      <c r="C353" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D350" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E350" s="10" t="s">
+      <c r="D353" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F350" s="10"/>
-    </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B351" s="10" t="s">
+      <c r="F353" s="10"/>
+    </row>
+    <row r="354" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B354" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C351" s="10"/>
-      <c r="D351" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E351" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F351" s="10"/>
-      <c r="I351" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B352" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C352" s="10"/>
-      <c r="D352" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E352" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F352" s="10"/>
-      <c r="I352" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B353" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C353" s="10"/>
-      <c r="D353" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E353" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F353" s="10"/>
-      <c r="H353" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B354" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="C354" s="10"/>
       <c r="D354" s="10" t="s">
@@ -5289,13 +5652,14 @@
         <v>8</v>
       </c>
       <c r="F354" s="10"/>
-      <c r="I354" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I354" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J354" s="4"/>
+    </row>
+    <row r="355" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B355" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C355" s="10"/>
       <c r="D355" s="10" t="s">
@@ -5306,12 +5670,13 @@
       </c>
       <c r="F355" s="10"/>
       <c r="I355" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="J355" s="4"/>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B356" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C356" s="10"/>
       <c r="D356" s="10" t="s">
@@ -5321,11 +5686,13 @@
         <v>8</v>
       </c>
       <c r="F356" s="10"/>
-      <c r="I356" s="7"/>
-    </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H356" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B357" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="10" t="s">
@@ -5336,130 +5703,138 @@
       </c>
       <c r="F357" s="10"/>
       <c r="I357" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J357" s="6"/>
+    </row>
+    <row r="358" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B358" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C358" s="10"/>
+      <c r="D358" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358" s="10"/>
+      <c r="I358" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J358" s="4"/>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B359" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C359" s="10"/>
+      <c r="D359" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" s="10"/>
+      <c r="I359" s="7"/>
+      <c r="J359" s="7"/>
+    </row>
+    <row r="360" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B360" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C360" s="10"/>
+      <c r="D360" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F360" s="10"/>
+      <c r="I360" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B358" s="3" t="s">
+      <c r="J360" s="6"/>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B361" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
-      <c r="E358" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F358" s="3"/>
-      <c r="I358" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B359" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C359" s="3"/>
-      <c r="D359" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E359" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F359" s="3"/>
-    </row>
-    <row r="360" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B360" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
-      <c r="E360" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F360" s="3"/>
-      <c r="I360" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B361" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F361" s="3"/>
       <c r="I361" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J361" s="4"/>
+    </row>
+    <row r="362" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B362" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B363" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363" s="3"/>
+      <c r="I363" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J363" s="4"/>
+    </row>
+    <row r="364" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B364" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F364" s="3"/>
+      <c r="I364" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="362" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B362" s="3"/>
-      <c r="C362" s="3" t="s">
+      <c r="J364" s="4"/>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B365" s="3"/>
+      <c r="C365" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D362" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E362" s="3" t="s">
+      <c r="D365" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F362" s="3" t="s">
+      <c r="F365" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H362" t="s">
+      <c r="H365" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="363" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B363" s="3" t="s">
+    <row r="366" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B366" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F363" s="3"/>
-    </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B364" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C364" s="3"/>
-      <c r="D364" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E364" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F364" s="3"/>
-      <c r="I364" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="365" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B365" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E365" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F365" s="3"/>
-      <c r="I365" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="366" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B366" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
@@ -5469,11 +5844,10 @@
         <v>8</v>
       </c>
       <c r="F366" s="3"/>
-      <c r="I366" s="11"/>
-    </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="367" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B367" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
@@ -5483,13 +5857,14 @@
         <v>8</v>
       </c>
       <c r="F367" s="3"/>
-      <c r="I367" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="368" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I367" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J367" s="11"/>
+    </row>
+    <row r="368" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B368" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3" t="s">
@@ -5499,13 +5874,14 @@
         <v>8</v>
       </c>
       <c r="F368" s="3"/>
-      <c r="I368" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I368" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J368" s="11"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B369" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
@@ -5515,45 +5891,44 @@
         <v>8</v>
       </c>
       <c r="F369" s="3"/>
-      <c r="I369" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I369" s="11"/>
+      <c r="J369" s="11"/>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B370" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="F370" s="3"/>
       <c r="I370" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="371" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B371" s="3" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F371" s="3"/>
       <c r="I371" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="372" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B372" s="3" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
@@ -5564,40 +5939,44 @@
       </c>
       <c r="F372" s="3"/>
       <c r="I372" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="373" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B373" s="3" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C373" s="3"/>
-      <c r="D373" s="3"/>
+      <c r="D373" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E373" s="3" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="F373" s="3"/>
       <c r="I373" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B374" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
+      <c r="D374" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E374" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F374" s="3"/>
-      <c r="H374" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I374" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B375" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3" t="s">
@@ -5608,90 +5987,140 @@
       </c>
       <c r="F375" s="3"/>
       <c r="I375" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B376" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F376" s="3"/>
+      <c r="I376" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B377" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F377" s="3"/>
       <c r="H377" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I378" s="4" t="s">
+    <row r="378" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B378" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C378" s="3"/>
+      <c r="D378" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378" s="3"/>
+      <c r="I378" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H380" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I381" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I379" t="s">
+      <c r="J381" s="4"/>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I382" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I380" s="5" t="s">
+    <row r="383" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I383" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I381" t="s">
+      <c r="J383" s="5"/>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I384" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I382" t="s">
+    <row r="385" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I385" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I383" t="s">
+    <row r="386" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I386" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I384" t="s">
+    <row r="387" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I387" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="385" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="I385" s="5" t="s">
+    <row r="388" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I388" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="386" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H386" t="s">
+      <c r="J388" s="5"/>
+    </row>
+    <row r="389" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H389" t="s">
         <v>190</v>
       </c>
-      <c r="I386" s="4" t="s">
+      <c r="I389" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="387" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H387" t="s">
+      <c r="J389" s="4"/>
+    </row>
+    <row r="390" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H390" t="s">
         <v>57</v>
       </c>
-      <c r="I387" s="4" t="s">
+      <c r="I390" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="388" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="I388" t="s">
+      <c r="J390" s="4"/>
+    </row>
+    <row r="391" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I391" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="390" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H390" t="s">
+    <row r="393" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H393" t="s">
         <v>196</v>
       </c>
-      <c r="I390" t="s">
+      <c r="I393" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="391" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H391" t="s">
+    <row r="394" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H394" t="s">
         <v>192</v>
       </c>
-      <c r="I391" s="4" t="s">
+      <c r="I394" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="J394" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_report_mapping.xlsx
+++ b/mapping/mml_report_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="356">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -1036,18 +1036,6 @@
   </si>
   <si>
     <t>/context/other_context[at0001]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[at0005]/term_mappings/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[at0005]/term_mappings/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[at0005]/term_mappings/match</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1073,18 +1061,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/term_mappings/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/term_mappings/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1093,18 +1069,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/term_mappings/defining_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/term_mappings/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Anatomical location</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1173,10 +1137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0.22]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1242,6 +1202,58 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/target/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0.22]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/match</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1673,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L394"/>
+  <dimension ref="A1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1866,7 +1878,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="L9" s="12"/>
     </row>
@@ -1887,7 +1899,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="12" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -1900,11 +1912,11 @@
       <c r="F11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="12" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="L11" s="12"/>
     </row>
@@ -1925,13 +1937,13 @@
         <v>278</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L12" s="12"/>
     </row>
@@ -1954,7 +1966,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -1975,7 +1987,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="12" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="L14" s="12"/>
     </row>
@@ -1987,10 +1999,12 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="12" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -2011,13 +2025,13 @@
       <c r="F16" s="3"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -2040,7 +2054,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="12" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="L17" s="12"/>
     </row>
@@ -2061,7 +2075,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="12" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -2073,10 +2087,12 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="12" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="L19" s="12"/>
     </row>
@@ -2099,13 +2115,13 @@
         <v>279</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L20" s="12"/>
     </row>
@@ -2150,10 +2166,10 @@
         <v>280</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L22" s="12"/>
     </row>
@@ -2174,10 +2190,10 @@
         <v>281</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L23" s="12"/>
     </row>
@@ -2200,10 +2216,10 @@
         <v>282</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L24" s="12"/>
     </row>
@@ -2229,10 +2245,10 @@
         <v>280</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L25" s="12"/>
     </row>
@@ -2255,10 +2271,10 @@
         <v>281</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L26" s="12"/>
     </row>
@@ -2279,10 +2295,10 @@
         <v>282</v>
       </c>
       <c r="J27" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="L27" s="12"/>
     </row>
@@ -2308,10 +2324,10 @@
         <v>280</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L28" s="12"/>
     </row>
@@ -2334,10 +2350,10 @@
         <v>281</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L29" s="12"/>
     </row>
@@ -2358,10 +2374,10 @@
         <v>282</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L30" s="12"/>
     </row>
@@ -2387,10 +2403,10 @@
         <v>286</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L31" s="12"/>
     </row>
@@ -2416,10 +2432,10 @@
         <v>287</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L32" s="12"/>
     </row>
@@ -2438,13 +2454,13 @@
       <c r="F33" s="3"/>
       <c r="H33" s="12"/>
       <c r="I33" s="4" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L33" s="12"/>
     </row>
@@ -2488,7 +2504,7 @@
         <v>301</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L35" s="12"/>
     </row>
@@ -2509,10 +2525,10 @@
         <v>281</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L36" s="12"/>
     </row>
@@ -2535,10 +2551,10 @@
         <v>282</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L37" s="12"/>
     </row>
@@ -2564,10 +2580,10 @@
         <v>280</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L38" s="12"/>
     </row>
@@ -2590,10 +2606,10 @@
         <v>281</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -2614,10 +2630,10 @@
         <v>282</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="L40" s="12"/>
     </row>
@@ -2643,10 +2659,10 @@
         <v>280</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" s="12"/>
     </row>
@@ -2669,10 +2685,10 @@
         <v>281</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L42" s="12"/>
     </row>
@@ -2693,10 +2709,10 @@
         <v>282</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L43" s="12"/>
     </row>
@@ -2720,10 +2736,10 @@
         <v>286</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L44" s="12"/>
     </row>
@@ -2749,10 +2765,10 @@
         <v>287</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L45" s="12"/>
     </row>
@@ -2771,13 +2787,13 @@
       <c r="F46" s="3"/>
       <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L46" s="12"/>
     </row>
@@ -2803,10 +2819,10 @@
         <v>286</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L47" s="12"/>
     </row>
@@ -2832,10 +2848,10 @@
         <v>287</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L48" s="12"/>
     </row>
@@ -2854,13 +2870,13 @@
       <c r="F49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="L49" s="12"/>
     </row>
@@ -2903,10 +2919,10 @@
         <v>289</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L51" s="12"/>
     </row>
@@ -2932,10 +2948,10 @@
         <v>290</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="L52" s="12"/>
     </row>
@@ -2961,10 +2977,10 @@
         <v>291</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L53" s="12"/>
     </row>
@@ -2987,13 +3003,13 @@
         <v>279</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L54" s="12"/>
     </row>
@@ -3015,10 +3031,10 @@
         <v>293</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L55" s="12"/>
     </row>
@@ -3044,10 +3060,10 @@
         <v>295</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L56" s="12"/>
     </row>
@@ -3088,7 +3104,9 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="K58" s="12" t="s">
+        <v>353</v>
+      </c>
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -3107,43 +3125,55 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="K59" s="12" t="s">
+        <v>354</v>
+      </c>
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="H60" s="12" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="H61" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="J61" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>342</v>
+      </c>
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -3169,183 +3199,176 @@
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H65" s="12"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B186" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H66" s="12"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F188" s="3"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="3"/>
-      <c r="C189" s="3" t="s">
+      <c r="B189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="3" t="s">
+      <c r="D190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F190" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B190" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F192" s="3"/>
-    </row>
-    <row r="193" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B193" s="3" t="s">
+      <c r="E193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B194" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B194" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F194" s="3"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B196" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="3" t="s">
+      <c r="C196" s="3"/>
+      <c r="D196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F195" s="3"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B196" s="3"/>
-      <c r="C196" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F196" s="3"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="3" t="s">
+      <c r="D198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B198" s="3" t="s">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B199" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C199" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F199" s="3"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C200" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>7</v>
@@ -3353,104 +3376,101 @@
       <c r="E200" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F200" s="3"/>
+      <c r="F200" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C201" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C202" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C203" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H202" s="4"/>
-    </row>
-    <row r="203" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B203" s="3" t="s">
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B204" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F203" s="3"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B204" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+      <c r="E204" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F204" s="3"/>
-      <c r="H204" t="s">
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="H205" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B205" s="3"/>
-      <c r="C205" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I205" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J205" s="4"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="3" t="s">
+      <c r="D207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F206" s="3"/>
-      <c r="I206" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J206" s="5"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B207" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F207" s="3"/>
       <c r="I207" s="5" t="s">
@@ -3459,26 +3479,25 @@
       <c r="J207" s="5"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C208" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B208" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J208" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F208" s="3"/>
+      <c r="I208" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J208" s="5"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C209" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
@@ -3486,104 +3505,105 @@
       <c r="E209" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F209" s="3"/>
+      <c r="F209" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J209" s="4"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C210" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C211" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F210" s="3"/>
-      <c r="H210" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B211" s="3"/>
-      <c r="C211" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="F211" s="3"/>
+      <c r="H211" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I211" s="6" t="s">
+      <c r="I212" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J211" s="6"/>
-    </row>
-    <row r="212" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B212" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="I212" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J212" s="4"/>
+      <c r="J212" s="6"/>
     </row>
     <row r="213" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B213" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="I213" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B214" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F213" s="3"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B214" s="3" t="s">
+      <c r="F214" s="3"/>
+      <c r="I214" s="7"/>
+      <c r="J214" s="7"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B215" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="I214" s="6" t="s">
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="I215" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J214" s="6"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B215" s="3"/>
-      <c r="C215" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F215" s="3"/>
-      <c r="I215" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J215" s="4"/>
+      <c r="J215" s="6"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="3"/>
       <c r="C216" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>7</v>
@@ -3592,68 +3612,69 @@
         <v>18</v>
       </c>
       <c r="F216" s="3"/>
-    </row>
-    <row r="217" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B217" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+      <c r="I216" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J216" s="4"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E217" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F217" s="3"/>
-      <c r="I217" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J217" s="4"/>
     </row>
     <row r="218" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B218" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F218" s="3"/>
       <c r="I218" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J218" s="4"/>
+    </row>
+    <row r="219" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B219" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219" s="3"/>
+      <c r="I219" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J218" s="4"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B219" s="3" t="s">
+      <c r="J219" s="4"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B220" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B220" s="3"/>
-      <c r="C220" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E220" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E220" s="3"/>
       <c r="F220" s="3"/>
-      <c r="H220" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="3"/>
       <c r="C221" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
@@ -3662,80 +3683,79 @@
         <v>18</v>
       </c>
       <c r="F221" s="3"/>
-      <c r="I221" s="6" t="s">
+      <c r="H221" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222" s="3"/>
+      <c r="I222" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J221" s="6"/>
-    </row>
-    <row r="222" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B222" s="3" t="s">
+      <c r="J222" s="6"/>
+    </row>
+    <row r="223" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B223" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" s="3"/>
-      <c r="I222" s="4" t="s">
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" s="3"/>
+      <c r="I223" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J222" s="4"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B223" s="3" t="s">
+      <c r="J223" s="4"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B224" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="3" t="s">
+      <c r="C224" s="3"/>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F224" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B224" s="3"/>
-      <c r="C224" s="3" t="s">
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D224" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="3" t="s">
+      <c r="D225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F224" s="3"/>
-      <c r="I224" s="6" t="s">
+      <c r="F225" s="3"/>
+      <c r="I225" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J224" s="6"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B225" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F225" s="3"/>
-      <c r="I225" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J225" s="4"/>
+      <c r="J225" s="6"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
@@ -3745,121 +3765,125 @@
         <v>8</v>
       </c>
       <c r="F226" s="3"/>
-    </row>
-    <row r="227" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I226" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J226" s="4"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J227" s="4"/>
+      <c r="F227" s="3"/>
     </row>
     <row r="228" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B228" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F228" s="3"/>
+      <c r="F228" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I228" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J228" s="4"/>
     </row>
     <row r="229" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B229" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="3"/>
+      <c r="I229" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J229" s="4"/>
+    </row>
+    <row r="230" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B230" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" s="3"/>
-      <c r="H229" t="s">
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="H230" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B230" s="3"/>
-      <c r="C230" s="3" t="s">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" s="3" t="s">
+      <c r="D231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F230" s="3"/>
-      <c r="I230" t="s">
+      <c r="F231" s="3"/>
+      <c r="I231" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B231" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
-      <c r="E232" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B234" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B234" s="3"/>
-      <c r="C234" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C234" s="3"/>
       <c r="D234" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E234" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="3"/>
       <c r="C235" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>7</v>
@@ -3868,64 +3892,60 @@
         <v>18</v>
       </c>
       <c r="F235" s="3"/>
-      <c r="I235" t="s">
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236" s="3"/>
+      <c r="I236" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B236" s="3" t="s">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B237" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" s="3"/>
-    </row>
-    <row r="237" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B237" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B238" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B238" s="3" t="s">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B239" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B239" s="3"/>
-      <c r="C239" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E239" s="3"/>
       <c r="F239" s="3"/>
-      <c r="I239" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J239" s="4"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B240" s="3"/>
       <c r="C240" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>7</v>
@@ -3934,141 +3954,142 @@
         <v>18</v>
       </c>
       <c r="F240" s="3"/>
+      <c r="I240" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J240" s="4"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B241" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D241" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F241" s="3"/>
-      <c r="I241" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B242" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E242" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F242" s="3"/>
-      <c r="I242" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J242" s="4"/>
+      <c r="I242" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B243" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F243" s="3"/>
       <c r="I243" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J243" s="4"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B244" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="I244" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J243" s="4"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B244" s="3"/>
-      <c r="C244" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="J244" s="4"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B245" s="3"/>
       <c r="C245" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F245" s="3"/>
-    </row>
-    <row r="246" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B246" s="3" t="s">
+      <c r="F245" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J245" s="4"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B247" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="I246" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J246" s="4"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B247" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
+      <c r="I247" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J247" s="4"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B248" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C248" s="3"/>
-      <c r="D248" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
-      <c r="H248" t="s">
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B249" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="H249" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B249" s="3"/>
-      <c r="C249" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F249" s="3"/>
-      <c r="I249" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B250" s="3"/>
       <c r="C250" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>113</v>
@@ -4077,27 +4098,30 @@
         <v>114</v>
       </c>
       <c r="F250" s="3"/>
+      <c r="I250" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B251" s="3"/>
       <c r="C251" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F251" s="3"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B252" s="3"/>
       <c r="C252" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>118</v>
@@ -4105,79 +4129,75 @@
       <c r="F252" s="3"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B253" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F253" s="3"/>
-      <c r="H253" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B254" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="H254" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B255" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F254" s="3"/>
-      <c r="I254" t="s">
+      <c r="F255" s="3"/>
+      <c r="I255" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B255" s="3"/>
-      <c r="C255" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B256" s="3"/>
       <c r="C256" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" s="3" t="s">
+      <c r="D257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F256" s="3"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B257" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" s="3"/>
       <c r="F257" s="3"/>
-      <c r="H257" t="s">
-        <v>57</v>
-      </c>
-      <c r="I257" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B258" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
@@ -4185,57 +4205,58 @@
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
+      <c r="H258" t="s">
+        <v>57</v>
+      </c>
+      <c r="I258" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B259" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E259" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B260" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E260" s="3"/>
+      <c r="E260" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F260" s="3"/>
-      <c r="H260" t="s">
-        <v>108</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J260" s="4"/>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B261" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E261" s="3"/>
       <c r="F261" s="3"/>
-      <c r="I261" t="s">
-        <v>110</v>
-      </c>
+      <c r="H261" t="s">
+        <v>108</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J261" s="4"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B262" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
@@ -4245,93 +4266,95 @@
         <v>8</v>
       </c>
       <c r="F262" s="3"/>
+      <c r="I262" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B263" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+      <c r="D263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F263" s="3"/>
-      <c r="H263" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B264" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="H264" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B265" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E264" s="3" t="s">
+      <c r="C265" s="3"/>
+      <c r="D265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F264" s="3"/>
-      <c r="I264" t="s">
+      <c r="F265" s="3"/>
+      <c r="I265" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B265" s="3"/>
-      <c r="C265" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B266" s="3"/>
       <c r="C266" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B267" s="3"/>
+      <c r="C267" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="3" t="s">
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F266" s="3"/>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B267" s="3" t="s">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B268" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F267" s="3"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C268" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C268" s="3"/>
       <c r="D268" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F268" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F268" s="3"/>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C269" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>7</v>
@@ -4339,137 +4362,134 @@
       <c r="E269" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F269" s="3"/>
+      <c r="F269" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C270" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C271" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F270" s="3"/>
-      <c r="H270" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="271" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C271" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F271" s="3"/>
+      <c r="H271" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C272" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I271" s="9" t="s">
+      <c r="I272" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J271" s="9"/>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B272" s="3" t="s">
+      <c r="J272" s="9"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B273" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-    </row>
-    <row r="273" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B273" s="3" t="s">
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B274" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E273" s="3" t="s">
+      <c r="C274" s="3"/>
+      <c r="D274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F273" s="3"/>
-      <c r="I273" s="4" t="s">
+      <c r="F274" s="3"/>
+      <c r="I274" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J273" s="4"/>
-    </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B274" s="3"/>
-      <c r="C274" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I274" t="s">
-        <v>128</v>
-      </c>
+      <c r="J274" s="4"/>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B275" s="3"/>
       <c r="C275" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I275" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B276" s="3"/>
+      <c r="C276" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D275" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="3" t="s">
+      <c r="D276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F275" s="3"/>
-      <c r="I275" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B276" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F276" s="3"/>
       <c r="I276" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B277" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277" s="3"/>
+      <c r="I277" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C277" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F277" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I277" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C278" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>7</v>
@@ -4477,115 +4497,113 @@
       <c r="E278" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F278" s="3"/>
-      <c r="I278" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J278" s="5"/>
+      <c r="F278" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I278" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C279" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F279" s="3"/>
-      <c r="H279" t="s">
-        <v>101</v>
-      </c>
+      <c r="I279" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J279" s="5"/>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C280" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F280" s="3"/>
+      <c r="H280" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C281" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F281" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I280" s="6" t="s">
+      <c r="I281" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J280" s="6"/>
-    </row>
-    <row r="281" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B281" s="3" t="s">
+      <c r="J281" s="6"/>
+    </row>
+    <row r="282" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B282" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F281" s="3"/>
-      <c r="I281" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J281" s="4"/>
-    </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B282" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" s="3"/>
+      <c r="I282" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J282" s="4"/>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B283" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F282" s="3"/>
-      <c r="I282" s="7"/>
-      <c r="J282" s="7"/>
-    </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B283" s="10"/>
-      <c r="C283" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D283" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F283" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I283" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J283" s="6"/>
+      <c r="F283" s="3"/>
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B284" s="10"/>
       <c r="C284" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I284" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J284" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="I284" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J284" s="6"/>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B285" s="10"/>
       <c r="C285" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>7</v>
@@ -4593,28 +4611,30 @@
       <c r="E285" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F285" s="10"/>
-    </row>
-    <row r="286" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B286" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C286" s="10"/>
+      <c r="F285" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J285" s="4"/>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B286" s="10"/>
+      <c r="C286" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D286" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F286" s="10"/>
-      <c r="I286" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J286" s="4"/>
     </row>
     <row r="287" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B287" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C287" s="10"/>
       <c r="D287" s="10" t="s">
@@ -4625,13 +4645,13 @@
       </c>
       <c r="F287" s="10"/>
       <c r="I287" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B288" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C288" s="10"/>
       <c r="D288" s="10" t="s">
@@ -4641,13 +4661,14 @@
         <v>8</v>
       </c>
       <c r="F288" s="10"/>
-      <c r="H288" t="s">
-        <v>101</v>
-      </c>
+      <c r="I288" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J288" s="4"/>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B289" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C289" s="10"/>
       <c r="D289" s="10" t="s">
@@ -4657,14 +4678,13 @@
         <v>8</v>
       </c>
       <c r="F289" s="10"/>
-      <c r="I289" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J289" s="6"/>
-    </row>
-    <row r="290" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="H289" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B290" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C290" s="10"/>
       <c r="D290" s="10" t="s">
@@ -4674,14 +4694,14 @@
         <v>8</v>
       </c>
       <c r="F290" s="10"/>
-      <c r="I290" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J290" s="4"/>
-    </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I290" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J290" s="6"/>
+    </row>
+    <row r="291" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B291" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C291" s="10"/>
       <c r="D291" s="10" t="s">
@@ -4691,12 +4711,14 @@
         <v>8</v>
       </c>
       <c r="F291" s="10"/>
-      <c r="I291" s="7"/>
-      <c r="J291" s="7"/>
+      <c r="I291" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J291" s="4"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B292" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="10" t="s">
@@ -4706,103 +4728,105 @@
         <v>8</v>
       </c>
       <c r="F292" s="10"/>
-      <c r="I292" s="6" t="s">
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B293" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" s="10"/>
+      <c r="I293" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J292" s="6"/>
-    </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B293" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F293" s="3"/>
-      <c r="I293" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J293" s="4"/>
+      <c r="J293" s="6"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B294" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" s="3"/>
+      <c r="I294" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J294" s="4"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B295" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E294" s="3" t="s">
+      <c r="C295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F294" s="3"/>
-    </row>
-    <row r="295" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B295" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F295" s="3"/>
-      <c r="I295" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J295" s="4"/>
     </row>
     <row r="296" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B296" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F296" s="3"/>
       <c r="I296" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J296" s="4"/>
+    </row>
+    <row r="297" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B297" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F297" s="3"/>
+      <c r="I297" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J296" s="4"/>
-    </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B297" s="3"/>
-      <c r="C297" s="3" t="s">
+      <c r="J297" s="4"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B298" s="3"/>
+      <c r="C298" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D297" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E297" s="3" t="s">
+      <c r="D298" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F297" s="3" t="s">
+      <c r="F298" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H297" t="s">
+      <c r="H298" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B298" s="3" t="s">
+    <row r="299" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B299" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F298" s="3"/>
-    </row>
-    <row r="299" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B299" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
@@ -4812,14 +4836,10 @@
         <v>8</v>
       </c>
       <c r="F299" s="3"/>
-      <c r="I299" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J299" s="11"/>
-    </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B300" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
@@ -4830,13 +4850,13 @@
       </c>
       <c r="F300" s="3"/>
       <c r="I300" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J300" s="11"/>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B301" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
@@ -4846,12 +4866,14 @@
         <v>8</v>
       </c>
       <c r="F301" s="3"/>
-      <c r="I301" s="11"/>
+      <c r="I301" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="J301" s="11"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B302" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
@@ -4861,13 +4883,12 @@
         <v>8</v>
       </c>
       <c r="F302" s="3"/>
-      <c r="I302" t="s">
-        <v>152</v>
-      </c>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B303" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
@@ -4878,12 +4899,12 @@
       </c>
       <c r="F303" s="3"/>
       <c r="I303" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B304" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
@@ -4894,75 +4915,75 @@
       </c>
       <c r="F304" s="3"/>
       <c r="I304" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B305" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="F305" s="3"/>
       <c r="I305" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="306" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B306" s="3" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
+      <c r="D306" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E306" s="3" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="F306" s="3"/>
       <c r="I306" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B307" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C307" s="3"/>
-      <c r="D307" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F307" s="3"/>
       <c r="I307" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B308" s="3"/>
-      <c r="C308" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B308" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F308" s="3"/>
       <c r="I308" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>7</v>
@@ -4971,129 +4992,129 @@
         <v>18</v>
       </c>
       <c r="F309" s="3"/>
-      <c r="H309" t="s">
+      <c r="I309" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F310" s="3"/>
+      <c r="H310" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B310" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F310" s="3"/>
-      <c r="I310" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B311" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311" s="3"/>
+      <c r="I311" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B312" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F311" s="3"/>
-    </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B312" s="3"/>
-      <c r="C312" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H312" t="s">
-        <v>166</v>
-      </c>
+      <c r="F312" s="3"/>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F313" s="3"/>
-      <c r="I313" s="4" t="s">
+      <c r="F313" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H313" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F314" s="3"/>
+      <c r="I314" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J313" s="4"/>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B314" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="I314" t="s">
-        <v>175</v>
-      </c>
+      <c r="J314" s="4"/>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B315" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
-      <c r="I315" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J315" s="5"/>
+      <c r="I315" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B316" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C316" s="3"/>
-      <c r="D316" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
-      <c r="I316" t="s">
-        <v>185</v>
-      </c>
+      <c r="I316" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J316" s="5"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B317" s="3"/>
-      <c r="C317" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="B317" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="I317" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B318" s="3"/>
       <c r="C318" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>113</v>
@@ -5103,119 +5124,124 @@
       </c>
       <c r="F318" s="3"/>
       <c r="I318" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B319" s="3"/>
       <c r="C319" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F319" s="3"/>
       <c r="I319" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B320" s="3"/>
       <c r="C320" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F320" s="3"/>
-      <c r="I320" s="5" t="s">
+      <c r="I320" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F321" s="3"/>
+      <c r="I321" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J320" s="5"/>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B321" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="H321" t="s">
-        <v>190</v>
-      </c>
-      <c r="I321" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J321" s="4"/>
+      <c r="J321" s="5"/>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B322" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
-      <c r="E322" s="3" t="s">
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+      <c r="H322" t="s">
+        <v>190</v>
+      </c>
+      <c r="I322" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J322" s="4"/>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B323" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F322" s="3"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B323" s="3"/>
-      <c r="C323" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H323" t="s">
-        <v>104</v>
-      </c>
-      <c r="I323" t="s">
-        <v>105</v>
-      </c>
+      <c r="F323" s="3"/>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B324" s="3"/>
       <c r="C324" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H324" t="s">
+        <v>104</v>
+      </c>
+      <c r="I324" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D324" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E324" s="3" t="s">
+      <c r="D325" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F324" s="3"/>
-      <c r="I324" s="4"/>
-      <c r="J324" s="4"/>
-    </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B325" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C325" s="3"/>
-      <c r="D325" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E325" s="3"/>
       <c r="F325" s="3"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B326" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
@@ -5223,62 +5249,57 @@
       </c>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
-      <c r="I326" s="12"/>
-      <c r="J326" s="12"/>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B327" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E327" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E327" s="3"/>
       <c r="F327" s="3"/>
-      <c r="H327" t="s">
-        <v>107</v>
-      </c>
+      <c r="I327" s="12"/>
+      <c r="J327" s="12"/>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B328" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E328" s="3"/>
+      <c r="E328" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F328" s="3"/>
       <c r="H328" t="s">
-        <v>108</v>
-      </c>
-      <c r="I328" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J328" s="4"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B329" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E329" s="3"/>
       <c r="F329" s="3"/>
-      <c r="I329" t="s">
-        <v>110</v>
-      </c>
+      <c r="H329" t="s">
+        <v>108</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J329" s="4"/>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3" t="s">
@@ -5288,95 +5309,97 @@
         <v>8</v>
       </c>
       <c r="F330" s="3"/>
+      <c r="I330" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B331" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
+      <c r="D331" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F331" s="3"/>
-      <c r="H331" t="s">
-        <v>107</v>
-      </c>
-      <c r="I331" s="12"/>
-      <c r="J331" s="12"/>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B332" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+      <c r="H332" t="s">
+        <v>107</v>
+      </c>
+      <c r="I332" s="12"/>
+      <c r="J332" s="12"/>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B333" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C332" s="3"/>
-      <c r="D332" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E332" s="3" t="s">
+      <c r="C333" s="3"/>
+      <c r="D333" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F332" s="3"/>
-      <c r="I332" t="s">
+      <c r="F333" s="3"/>
+      <c r="I333" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B333" s="3"/>
-      <c r="C333" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E333" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B334" s="3"/>
       <c r="C334" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D334" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E334" s="3" t="s">
+      <c r="D335" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F334" s="3"/>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B335" s="3" t="s">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B336" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C335" s="3"/>
-      <c r="D335" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F335" s="3"/>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C336" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F336" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F336" s="3"/>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C337" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>7</v>
@@ -5384,137 +5407,134 @@
       <c r="E337" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F337" s="3"/>
+      <c r="F337" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C338" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C339" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F338" s="3"/>
-      <c r="H338" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="339" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C339" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F339" s="3" t="s">
+      <c r="F339" s="3"/>
+      <c r="H339" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="340" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C340" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F340" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I339" s="9" t="s">
+      <c r="I340" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J339" s="9"/>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B340" s="3" t="s">
+      <c r="J340" s="9"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B341" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
-    </row>
-    <row r="341" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B341" s="3" t="s">
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B342" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E341" s="3" t="s">
+      <c r="C342" s="3"/>
+      <c r="D342" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F341" s="3"/>
-      <c r="I341" s="4" t="s">
+      <c r="F342" s="3"/>
+      <c r="I342" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J341" s="4"/>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B342" s="3"/>
-      <c r="C342" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I342" t="s">
-        <v>128</v>
-      </c>
+      <c r="J342" s="4"/>
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B343" s="3"/>
       <c r="C343" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I343" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B344" s="3"/>
+      <c r="C344" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D343" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E343" s="3" t="s">
+      <c r="D344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F343" s="3"/>
-      <c r="I343" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B344" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C344" s="3"/>
-      <c r="D344" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E344" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F344" s="3"/>
       <c r="I344" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B345" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345" s="3"/>
+      <c r="I345" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C345" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F345" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I345" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="346" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C346" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>7</v>
@@ -5522,115 +5542,113 @@
       <c r="E346" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F346" s="3"/>
-      <c r="I346" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J346" s="5"/>
+      <c r="F346" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I346" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="347" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C347" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F347" s="3"/>
-      <c r="H347" t="s">
-        <v>101</v>
-      </c>
+      <c r="I347" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J347" s="5"/>
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C348" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F348" s="3"/>
+      <c r="H348" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C349" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F349" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I348" s="6" t="s">
+      <c r="I349" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J348" s="6"/>
-    </row>
-    <row r="349" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B349" s="3" t="s">
+      <c r="J349" s="6"/>
+    </row>
+    <row r="350" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B350" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C349" s="3"/>
-      <c r="D349" s="3"/>
-      <c r="E349" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F349" s="3"/>
-      <c r="I349" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J349" s="4"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B350" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F350" s="3"/>
+      <c r="I350" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J350" s="4"/>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B351" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F350" s="3"/>
-      <c r="I350" s="7"/>
-      <c r="J350" s="7"/>
-    </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B351" s="10"/>
-      <c r="C351" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D351" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E351" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F351" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I351" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J351" s="6"/>
+      <c r="F351" s="3"/>
+      <c r="I351" s="7"/>
+      <c r="J351" s="7"/>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B352" s="10"/>
       <c r="C352" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F352" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I352" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J352" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="I352" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J352" s="6"/>
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B353" s="10"/>
       <c r="C353" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>7</v>
@@ -5638,28 +5656,30 @@
       <c r="E353" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F353" s="10"/>
-    </row>
-    <row r="354" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B354" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C354" s="10"/>
+      <c r="F353" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I353" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J353" s="4"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B354" s="10"/>
+      <c r="C354" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D354" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F354" s="10"/>
-      <c r="I354" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J354" s="4"/>
     </row>
     <row r="355" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B355" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C355" s="10"/>
       <c r="D355" s="10" t="s">
@@ -5670,13 +5690,13 @@
       </c>
       <c r="F355" s="10"/>
       <c r="I355" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B356" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C356" s="10"/>
       <c r="D356" s="10" t="s">
@@ -5686,13 +5706,14 @@
         <v>8</v>
       </c>
       <c r="F356" s="10"/>
-      <c r="H356" t="s">
-        <v>101</v>
-      </c>
+      <c r="I356" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J356" s="4"/>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B357" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="10" t="s">
@@ -5702,14 +5723,13 @@
         <v>8</v>
       </c>
       <c r="F357" s="10"/>
-      <c r="I357" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J357" s="6"/>
-    </row>
-    <row r="358" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="H357" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B358" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C358" s="10"/>
       <c r="D358" s="10" t="s">
@@ -5719,14 +5739,14 @@
         <v>8</v>
       </c>
       <c r="F358" s="10"/>
-      <c r="I358" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J358" s="4"/>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I358" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J358" s="6"/>
+    </row>
+    <row r="359" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B359" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C359" s="10"/>
       <c r="D359" s="10" t="s">
@@ -5736,12 +5756,14 @@
         <v>8</v>
       </c>
       <c r="F359" s="10"/>
-      <c r="I359" s="7"/>
-      <c r="J359" s="7"/>
+      <c r="I359" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J359" s="4"/>
     </row>
     <row r="360" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B360" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C360" s="10"/>
       <c r="D360" s="10" t="s">
@@ -5751,103 +5773,105 @@
         <v>8</v>
       </c>
       <c r="F360" s="10"/>
-      <c r="I360" s="6" t="s">
+      <c r="I360" s="7"/>
+      <c r="J360" s="7"/>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B361" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C361" s="10"/>
+      <c r="D361" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361" s="10"/>
+      <c r="I361" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J360" s="6"/>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B361" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C361" s="3"/>
-      <c r="D361" s="3"/>
-      <c r="E361" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F361" s="3"/>
-      <c r="I361" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J361" s="4"/>
+      <c r="J361" s="6"/>
     </row>
     <row r="362" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B362" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362" s="3"/>
+      <c r="I362" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J362" s="4"/>
+    </row>
+    <row r="363" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B363" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C362" s="3"/>
-      <c r="D362" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E362" s="3" t="s">
+      <c r="C363" s="3"/>
+      <c r="D363" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F362" s="3"/>
-    </row>
-    <row r="363" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B363" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F363" s="3"/>
-      <c r="I363" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J363" s="4"/>
     </row>
     <row r="364" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B364" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F364" s="3"/>
       <c r="I364" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J364" s="4"/>
+    </row>
+    <row r="365" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B365" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F365" s="3"/>
+      <c r="I365" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J364" s="4"/>
-    </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B365" s="3"/>
-      <c r="C365" s="3" t="s">
+      <c r="J365" s="4"/>
+    </row>
+    <row r="366" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B366" s="3"/>
+      <c r="C366" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D365" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E365" s="3" t="s">
+      <c r="D366" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F365" s="3" t="s">
+      <c r="F366" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H365" t="s">
+      <c r="H366" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B366" s="3" t="s">
+    <row r="367" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B367" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C366" s="3"/>
-      <c r="D366" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E366" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F366" s="3"/>
-    </row>
-    <row r="367" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B367" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
@@ -5857,14 +5881,10 @@
         <v>8</v>
       </c>
       <c r="F367" s="3"/>
-      <c r="I367" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J367" s="11"/>
-    </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="368" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B368" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3" t="s">
@@ -5875,13 +5895,13 @@
       </c>
       <c r="F368" s="3"/>
       <c r="I368" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J368" s="11"/>
     </row>
     <row r="369" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B369" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3" t="s">
@@ -5891,12 +5911,14 @@
         <v>8</v>
       </c>
       <c r="F369" s="3"/>
-      <c r="I369" s="11"/>
+      <c r="I369" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="J369" s="11"/>
     </row>
     <row r="370" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B370" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
@@ -5906,13 +5928,12 @@
         <v>8</v>
       </c>
       <c r="F370" s="3"/>
-      <c r="I370" t="s">
-        <v>152</v>
-      </c>
+      <c r="I370" s="11"/>
+      <c r="J370" s="11"/>
     </row>
     <row r="371" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B371" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
@@ -5923,12 +5944,12 @@
       </c>
       <c r="F371" s="3"/>
       <c r="I371" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="372" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B372" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
@@ -5939,188 +5960,204 @@
       </c>
       <c r="F372" s="3"/>
       <c r="I372" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="373" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B373" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="F373" s="3"/>
       <c r="I373" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="374" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B374" s="3" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="F374" s="3"/>
       <c r="I374" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="375" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B375" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F375" s="3"/>
       <c r="I375" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="376" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B376" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C376" s="3"/>
-      <c r="D376" s="3"/>
+      <c r="D376" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E376" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F376" s="3"/>
       <c r="I376" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="377" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B377" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F377" s="3"/>
-      <c r="H377" t="s">
-        <v>166</v>
+      <c r="I377" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="378" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B378" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C378" s="3"/>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F378" s="3"/>
+      <c r="H378" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B379" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C378" s="3"/>
-      <c r="D378" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E378" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F378" s="3"/>
-      <c r="I378" t="s">
+      <c r="C379" s="3"/>
+      <c r="D379" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F379" s="3"/>
+      <c r="I379" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="H380" t="s">
+    <row r="381" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H381" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I381" s="4" t="s">
+    <row r="382" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I382" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J381" s="4"/>
-    </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I382" t="s">
+      <c r="J382" s="4"/>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I383" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I383" s="5" t="s">
+    <row r="384" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I384" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J383" s="5"/>
-    </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I384" t="s">
-        <v>185</v>
-      </c>
+      <c r="J384" s="5"/>
     </row>
     <row r="385" spans="8:10" x14ac:dyDescent="0.15">
       <c r="I385" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="386" spans="8:10" x14ac:dyDescent="0.15">
       <c r="I386" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="387" spans="8:10" x14ac:dyDescent="0.15">
       <c r="I387" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="388" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I388" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="I388" s="5" t="s">
+    <row r="389" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I389" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J388" s="5"/>
-    </row>
-    <row r="389" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="H389" t="s">
-        <v>190</v>
-      </c>
-      <c r="I389" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J389" s="4"/>
+      <c r="J389" s="5"/>
     </row>
     <row r="390" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H390" t="s">
+        <v>190</v>
+      </c>
+      <c r="I390" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J390" s="4"/>
+    </row>
+    <row r="391" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H391" t="s">
         <v>57</v>
       </c>
-      <c r="I390" s="4" t="s">
+      <c r="I391" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J390" s="4"/>
-    </row>
-    <row r="391" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="I391" t="s">
+      <c r="J391" s="4"/>
+    </row>
+    <row r="392" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I392" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="393" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="H393" t="s">
-        <v>196</v>
-      </c>
-      <c r="I393" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="394" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H394" t="s">
+        <v>196</v>
+      </c>
+      <c r="I394" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="395" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H395" t="s">
         <v>192</v>
       </c>
-      <c r="I394" s="4" t="s">
+      <c r="I395" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J394" s="4"/>
+      <c r="J395" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_report_mapping.xlsx
+++ b/mapping/mml_report_mapping.xlsx
@@ -948,9 +948,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name of the organisation</t>
-  </si>
-  <si>
     <t>Identifier</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -968,10 +965,6 @@
   </si>
   <si>
     <t>openEHR-EHR-CLUSTER.person_name-mml.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unstructure name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1185,10 +1178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Clinical descfription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/diagnosis']/data[at0001]/items[at0009]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,6 +1243,18 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unstructured name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clinical description</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1261,7 +1262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,8 +1286,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,6 +1399,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1720,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -1800,10 +1822,10 @@
         <v>274</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L6" s="12"/>
     </row>
@@ -1825,10 +1847,10 @@
         <v>275</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L7" s="12"/>
     </row>
@@ -1852,10 +1874,10 @@
         <v>277</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L8" s="12"/>
     </row>
@@ -1878,7 +1900,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L9" s="12"/>
     </row>
@@ -1899,7 +1921,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -1912,11 +1934,11 @@
       <c r="F11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L11" s="12"/>
     </row>
@@ -1937,13 +1959,13 @@
         <v>278</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="L12" s="12"/>
     </row>
@@ -1966,7 +1988,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -1987,7 +2009,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L14" s="12"/>
     </row>
@@ -2000,11 +2022,11 @@
       <c r="F15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -2025,13 +2047,13 @@
       <c r="F16" s="3"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -2054,7 +2076,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L17" s="12"/>
     </row>
@@ -2075,7 +2097,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -2088,11 +2110,11 @@
       <c r="F19" s="3"/>
       <c r="H19" s="12"/>
       <c r="I19" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L19" s="12"/>
     </row>
@@ -2115,13 +2137,13 @@
         <v>279</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="L20" s="12"/>
     </row>
@@ -2160,16 +2182,16 @@
       </c>
       <c r="F22" s="3"/>
       <c r="H22" t="s">
-        <v>283</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L22" s="12"/>
     </row>
@@ -2187,13 +2209,13 @@
       </c>
       <c r="F23" s="3"/>
       <c r="I23" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L23" s="12"/>
     </row>
@@ -2213,13 +2235,13 @@
         <v>226</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L24" s="12"/>
     </row>
@@ -2239,16 +2261,16 @@
       </c>
       <c r="F25" s="3"/>
       <c r="H25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L25" s="12"/>
     </row>
@@ -2268,13 +2290,13 @@
         <v>230</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L26" s="12"/>
     </row>
@@ -2292,13 +2314,13 @@
       </c>
       <c r="F27" s="3"/>
       <c r="I27" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L27" s="12"/>
     </row>
@@ -2318,16 +2340,16 @@
       </c>
       <c r="F28" s="3"/>
       <c r="H28" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L28" s="12"/>
     </row>
@@ -2347,13 +2369,13 @@
         <v>216</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L29" s="12"/>
     </row>
@@ -2371,13 +2393,13 @@
       </c>
       <c r="F30" s="3"/>
       <c r="I30" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L30" s="12"/>
     </row>
@@ -2397,16 +2419,16 @@
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L31" s="12"/>
     </row>
@@ -2426,16 +2448,16 @@
         <v>216</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L32" s="12"/>
     </row>
@@ -2454,13 +2476,13 @@
       <c r="F33" s="3"/>
       <c r="H33" s="12"/>
       <c r="I33" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L33" s="12"/>
     </row>
@@ -2495,16 +2517,16 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="H35" t="s">
-        <v>283</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L35" s="12"/>
     </row>
@@ -2522,13 +2544,13 @@
       </c>
       <c r="F36" s="3"/>
       <c r="I36" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L36" s="12"/>
     </row>
@@ -2548,13 +2570,13 @@
         <v>226</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L37" s="12"/>
     </row>
@@ -2574,16 +2596,16 @@
       </c>
       <c r="F38" s="3"/>
       <c r="H38" t="s">
-        <v>283</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L38" s="12"/>
     </row>
@@ -2603,13 +2625,13 @@
         <v>230</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -2627,13 +2649,13 @@
       </c>
       <c r="F40" s="3"/>
       <c r="I40" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L40" s="12"/>
     </row>
@@ -2653,16 +2675,16 @@
       </c>
       <c r="F41" s="3"/>
       <c r="H41" t="s">
-        <v>283</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L41" s="12"/>
     </row>
@@ -2682,13 +2704,13 @@
         <v>216</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L42" s="12"/>
     </row>
@@ -2706,13 +2728,13 @@
       </c>
       <c r="F43" s="3"/>
       <c r="I43" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L43" s="12"/>
     </row>
@@ -2730,16 +2752,16 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="H44" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L44" s="12"/>
     </row>
@@ -2759,16 +2781,16 @@
         <v>216</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L45" s="12"/>
     </row>
@@ -2787,13 +2809,13 @@
       <c r="F46" s="3"/>
       <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L46" s="12"/>
     </row>
@@ -2813,16 +2835,16 @@
       </c>
       <c r="F47" s="3"/>
       <c r="H47" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L47" s="12"/>
     </row>
@@ -2842,16 +2864,16 @@
         <v>216</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L48" s="12"/>
     </row>
@@ -2870,13 +2892,13 @@
       <c r="F49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L49" s="12"/>
     </row>
@@ -2913,16 +2935,16 @@
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L51" s="12"/>
     </row>
@@ -2945,13 +2967,13 @@
         <v>278</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L52" s="12"/>
     </row>
@@ -2974,17 +2996,17 @@
         <v>279</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L53" s="12"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>263</v>
       </c>
@@ -3002,14 +3024,14 @@
       <c r="H54" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>338</v>
+      <c r="I54" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L54" s="12"/>
     </row>
@@ -3025,16 +3047,16 @@
       </c>
       <c r="F55" s="3"/>
       <c r="H55" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L55" s="12"/>
     </row>
@@ -3054,16 +3076,16 @@
       </c>
       <c r="F56" s="3"/>
       <c r="H56" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L56" s="12"/>
     </row>
@@ -3105,7 +3127,7 @@
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L58" s="12"/>
     </row>
@@ -3126,7 +3148,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L59" s="12"/>
     </row>
@@ -3139,11 +3161,11 @@
       <c r="F60" s="3"/>
       <c r="H60" s="12"/>
       <c r="I60" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L60" s="12"/>
     </row>
@@ -3163,16 +3185,16 @@
       </c>
       <c r="F61" s="3"/>
       <c r="H61" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L61" s="12"/>
     </row>

--- a/mapping/mml_report_mapping.xlsx
+++ b/mapping/mml_report_mapping.xlsx
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mapping/mml_report_mapping.xlsx
+++ b/mapping/mml_report_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="368">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -989,10 +989,6 @@
   </si>
   <si>
     <t>openEHR-EHR-CLUSTER.citation.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URI to original data</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1182,79 +1178,127 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[at0005]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/target/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0.22]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/target/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unstructured name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clinical description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlCm:contentType</t>
+  </si>
+  <si>
+    <t>mmlCm:medicalRole</t>
+  </si>
+  <si>
+    <t>mmlCm:title</t>
+  </si>
+  <si>
+    <t>mmlCm:href</t>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_MULTIMEDIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI to original data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_URI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[at0005]/mappings/target/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[at0005]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[at0005]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/target/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/target/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/target/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='client']/items[at0003]/items[at0.22]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/target/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/target/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of organisation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unstructured name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clinical description</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1707,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L395"/>
+  <dimension ref="A1:L399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1742,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -1822,10 +1866,10 @@
         <v>274</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="L6" s="12"/>
     </row>
@@ -1847,10 +1891,10 @@
         <v>275</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="L7" s="12"/>
     </row>
@@ -1874,10 +1918,10 @@
         <v>277</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>300</v>
       </c>
       <c r="L8" s="12"/>
     </row>
@@ -1900,7 +1944,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L9" s="12"/>
     </row>
@@ -1921,7 +1965,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -1934,11 +1978,11 @@
       <c r="F11" s="3"/>
       <c r="H11" s="12"/>
       <c r="I11" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L11" s="12"/>
     </row>
@@ -1959,13 +2003,13 @@
         <v>278</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="L12" s="12"/>
     </row>
@@ -1988,7 +2032,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -2009,7 +2053,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L14" s="12"/>
     </row>
@@ -2022,11 +2066,11 @@
       <c r="F15" s="3"/>
       <c r="H15" s="12"/>
       <c r="I15" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -2047,13 +2091,13 @@
       <c r="F16" s="3"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -2076,7 +2120,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L17" s="12"/>
     </row>
@@ -2097,7 +2141,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -2110,11 +2154,11 @@
       <c r="F19" s="3"/>
       <c r="H19" s="12"/>
       <c r="I19" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L19" s="12"/>
     </row>
@@ -2137,13 +2181,13 @@
         <v>279</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="L20" s="12"/>
     </row>
@@ -2185,13 +2229,13 @@
         <v>282</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J22" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="L22" s="12"/>
     </row>
@@ -2212,10 +2256,10 @@
         <v>280</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="L23" s="12"/>
     </row>
@@ -2238,10 +2282,10 @@
         <v>281</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L24" s="12"/>
     </row>
@@ -2264,13 +2308,13 @@
         <v>282</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L25" s="12"/>
     </row>
@@ -2293,10 +2337,10 @@
         <v>280</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L26" s="12"/>
     </row>
@@ -2317,10 +2361,10 @@
         <v>281</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L27" s="12"/>
     </row>
@@ -2343,13 +2387,13 @@
         <v>282</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L28" s="12"/>
     </row>
@@ -2372,10 +2416,10 @@
         <v>280</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L29" s="12"/>
     </row>
@@ -2396,10 +2440,10 @@
         <v>281</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L30" s="12"/>
     </row>
@@ -2422,13 +2466,13 @@
         <v>284</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L31" s="12"/>
     </row>
@@ -2454,10 +2498,10 @@
         <v>285</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L32" s="12"/>
     </row>
@@ -2476,13 +2520,13 @@
       <c r="F33" s="3"/>
       <c r="H33" s="12"/>
       <c r="I33" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L33" s="12"/>
     </row>
@@ -2520,13 +2564,13 @@
         <v>282</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L35" s="12"/>
     </row>
@@ -2547,10 +2591,10 @@
         <v>280</v>
       </c>
       <c r="J36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="L36" s="12"/>
     </row>
@@ -2573,10 +2617,10 @@
         <v>281</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L37" s="12"/>
     </row>
@@ -2599,13 +2643,13 @@
         <v>282</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L38" s="12"/>
     </row>
@@ -2628,10 +2672,10 @@
         <v>280</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L39" s="12"/>
     </row>
@@ -2652,10 +2696,10 @@
         <v>281</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L40" s="12"/>
     </row>
@@ -2678,13 +2722,13 @@
         <v>282</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L41" s="12"/>
     </row>
@@ -2707,10 +2751,10 @@
         <v>280</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L42" s="12"/>
     </row>
@@ -2731,10 +2775,10 @@
         <v>281</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L43" s="12"/>
     </row>
@@ -2755,13 +2799,13 @@
         <v>284</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L44" s="12"/>
     </row>
@@ -2787,10 +2831,10 @@
         <v>285</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L45" s="12"/>
     </row>
@@ -2809,13 +2853,13 @@
       <c r="F46" s="3"/>
       <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="L46" s="12"/>
     </row>
@@ -2838,13 +2882,13 @@
         <v>284</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L47" s="12"/>
     </row>
@@ -2870,10 +2914,10 @@
         <v>285</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L48" s="12"/>
     </row>
@@ -2892,13 +2936,13 @@
       <c r="F49" s="3"/>
       <c r="H49" s="12"/>
       <c r="I49" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L49" s="12"/>
     </row>
@@ -2941,10 +2985,10 @@
         <v>287</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L51" s="12"/>
     </row>
@@ -2970,10 +3014,10 @@
         <v>288</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L52" s="12"/>
     </row>
@@ -2999,10 +3043,10 @@
         <v>289</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L53" s="12"/>
     </row>
@@ -3025,13 +3069,13 @@
         <v>279</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L54" s="12"/>
     </row>
@@ -3049,43 +3093,33 @@
       <c r="H55" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>337</v>
-      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C56" s="3"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="D56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="H56" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>293</v>
+      <c r="H56" s="12"/>
+      <c r="I56" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="L56" s="12"/>
     </row>
@@ -3093,7 +3127,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>7</v>
@@ -3103,16 +3137,22 @@
       </c>
       <c r="F57" s="3"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="I57" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>365</v>
+      </c>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>7</v>
@@ -3120,14 +3160,16 @@
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="F58" s="3"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="I58" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="K58" s="12" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="L58" s="12"/>
     </row>
@@ -3135,276 +3177,318 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F59" s="3"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="I59" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="K59" s="12" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" s="3"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="J60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="K60" s="12" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C61" s="3"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="D61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="H61" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>339</v>
-      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="K62" s="12" t="s">
+        <v>347</v>
+      </c>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="K63" s="12" t="s">
+        <v>348</v>
+      </c>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="I64" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="K64" s="12" t="s">
+        <v>349</v>
+      </c>
       <c r="L64" s="12"/>
     </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="H65" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H66" s="12"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B187" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B188" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B190" s="3"/>
-      <c r="C190" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H70" s="12"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B193" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E194" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B195" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="D195" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B196" s="3" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B197" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B198" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B199" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B200" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F196" s="3"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B197" s="3"/>
-      <c r="C197" s="3" t="s">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B198" s="3"/>
-      <c r="C198" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B199" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F199" s="3"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C200" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C201" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>7</v>
@@ -3412,81 +3496,77 @@
       <c r="E201" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F201" s="3"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F201" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B202" s="3"/>
       <c r="C202" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C203" s="3" t="s">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C204" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C205" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C206" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C207" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B204" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" s="3"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B205" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="H205" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B206" s="3"/>
-      <c r="C206" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J206" s="4"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B207" s="3"/>
-      <c r="C207" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>7</v>
@@ -3494,50 +3574,38 @@
       <c r="E207" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="I207" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J207" s="5"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F207" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B208" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="3"/>
-      <c r="I208" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J208" s="5"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C209" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I209" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J209" s="4"/>
+      <c r="B209" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="H209" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B210" s="3"/>
       <c r="C210" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>7</v>
@@ -3545,87 +3613,97 @@
       <c r="E210" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F210" s="3"/>
+      <c r="F210" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J210" s="4"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B211" s="3"/>
       <c r="C211" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F211" s="3"/>
-      <c r="H211" t="s">
+      <c r="I211" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B212" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="3"/>
+      <c r="I212" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C213" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C214" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C215" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215" s="3"/>
+      <c r="H215" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B212" s="3"/>
-      <c r="C212" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I212" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J212" s="6"/>
-    </row>
-    <row r="213" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B213" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="I213" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J213" s="4"/>
-    </row>
-    <row r="214" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B214" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="3"/>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B215" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="I215" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J215" s="6"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="3"/>
       <c r="C216" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>7</v>
@@ -3633,70 +3711,76 @@
       <c r="E216" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F216" s="3"/>
-      <c r="I216" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J216" s="4"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B217" s="3"/>
-      <c r="C217" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F216" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J216" s="6"/>
+    </row>
+    <row r="217" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
       <c r="F217" s="3"/>
+      <c r="I217" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J217" s="4"/>
     </row>
     <row r="218" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B218" s="3" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F218" s="3"/>
-      <c r="I218" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J218" s="4"/>
-    </row>
-    <row r="219" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B219" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="3"/>
       <c r="F219" s="3"/>
-      <c r="I219" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J219" s="4"/>
+      <c r="I219" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J219" s="6"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B220" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D220" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F220" s="3"/>
+      <c r="I220" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J220" s="4"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="3"/>
       <c r="C221" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
@@ -3705,207 +3789,214 @@
         <v>18</v>
       </c>
       <c r="F221" s="3"/>
-      <c r="H221" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B222" s="3"/>
-      <c r="C222" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="222" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B222" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
       <c r="E222" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F222" s="3"/>
-      <c r="I222" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J222" s="6"/>
+      <c r="I222" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J222" s="4"/>
     </row>
     <row r="223" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B223" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F223" s="3"/>
       <c r="I223" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J223" s="4"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B224" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I224" s="7"/>
-      <c r="J224" s="7"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="3"/>
       <c r="C225" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F225" s="3"/>
-      <c r="I225" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J225" s="6"/>
+      <c r="H225" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B226" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D226" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F226" s="3"/>
-      <c r="I226" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J226" s="4"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I226" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J226" s="6"/>
+    </row>
+    <row r="227" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B227" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C227" s="3"/>
-      <c r="D227" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D227" s="3"/>
       <c r="E227" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F227" s="3"/>
-    </row>
-    <row r="228" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I227" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J227" s="4"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F228" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F229" s="3"/>
+      <c r="I229" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J229" s="6"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B230" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="I230" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J230" s="4"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B231" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B232" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I228" s="4" t="s">
+      <c r="I232" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J228" s="4"/>
-    </row>
-    <row r="229" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B229" s="3" t="s">
+      <c r="J232" s="4"/>
+    </row>
+    <row r="233" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B233" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3" t="s">
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E229" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" s="3"/>
-      <c r="I229" s="4" t="s">
+      <c r="E233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="I233" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J229" s="4"/>
-    </row>
-    <row r="230" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B230" s="3" t="s">
+      <c r="J233" s="4"/>
+    </row>
+    <row r="234" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B234" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" s="3"/>
-      <c r="H230" t="s">
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="3"/>
+      <c r="H234" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B231" s="3"/>
-      <c r="C231" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F231" s="3"/>
-      <c r="I231" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B232" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B233" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B234" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="3"/>
       <c r="C235" s="3" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>7</v>
@@ -3914,60 +4005,58 @@
         <v>18</v>
       </c>
       <c r="F235" s="3"/>
+      <c r="I235" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B236" s="3"/>
-      <c r="C236" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B236" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
       <c r="F236" s="3"/>
-      <c r="I236" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B238" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B239" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D239" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F239" s="3"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B240" s="3"/>
       <c r="C240" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>7</v>
@@ -3976,74 +4065,64 @@
         <v>18</v>
       </c>
       <c r="F240" s="3"/>
-      <c r="I240" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J240" s="4"/>
+      <c r="I240" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B241" s="3"/>
-      <c r="C241" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B241" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
       <c r="E241" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B242" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C242" s="3"/>
-      <c r="D242" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D242" s="3"/>
       <c r="E242" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F242" s="3"/>
-      <c r="I242" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B243" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="3"/>
       <c r="F243" s="3"/>
-      <c r="I243" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J243" s="4"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B244" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E244" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F244" s="3"/>
       <c r="I244" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J244" s="4"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B245" s="3"/>
       <c r="C245" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>7</v>
@@ -4051,346 +4130,351 @@
       <c r="E245" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F245" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I245" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J245" s="4"/>
+      <c r="F245" s="3"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B246" s="3"/>
-      <c r="C246" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B246" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C246" s="3"/>
       <c r="D246" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F246" s="3"/>
-    </row>
-    <row r="247" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I246" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B247" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+      <c r="E247" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F247" s="3"/>
       <c r="I247" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J247" s="4"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B248" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="E248" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F248" s="3"/>
+      <c r="I248" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J248" s="4"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B249" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D249" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="H249" t="s">
-        <v>57</v>
-      </c>
+      <c r="E249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J249" s="4"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B250" s="3"/>
       <c r="C250" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B251" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="I251" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J251" s="4"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B252" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B253" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="H253" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F250" s="3"/>
-      <c r="I250" t="s">
+      <c r="F254" s="3"/>
+      <c r="I254" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B251" s="3"/>
-      <c r="C251" s="3" t="s">
+    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D255" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F251" s="3"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B252" s="3"/>
-      <c r="C252" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F252" s="3"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B253" s="3"/>
-      <c r="C253" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F253" s="3"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B254" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="H254" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B255" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F255" s="3"/>
-      <c r="I255" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B256" s="3"/>
       <c r="C256" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F256" s="3"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B257" s="3"/>
       <c r="C257" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F257" s="3"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B258" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="H258" t="s">
-        <v>57</v>
-      </c>
-      <c r="I258" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B259" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C259" s="3"/>
-      <c r="D259" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F259" s="3"/>
+      <c r="I259" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B260" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="D260" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F260" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B261" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="D261" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E261" s="3"/>
+      <c r="E261" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F261" s="3"/>
-      <c r="H261" t="s">
-        <v>108</v>
-      </c>
-      <c r="I261" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J261" s="4"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B262" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E262" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E262" s="3"/>
       <c r="F262" s="3"/>
+      <c r="H262" t="s">
+        <v>57</v>
+      </c>
       <c r="I262" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B263" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E263" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B264" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+      <c r="D264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F264" s="3"/>
-      <c r="H264" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B265" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E265" s="3"/>
       <c r="F265" s="3"/>
-      <c r="I265" t="s">
-        <v>111</v>
-      </c>
+      <c r="H265" t="s">
+        <v>108</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J265" s="4"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B266" s="3"/>
-      <c r="C266" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="B266" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C266" s="3"/>
       <c r="D266" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>65</v>
+        <v>8</v>
+      </c>
+      <c r="F266" s="3"/>
+      <c r="I266" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B267" s="3"/>
-      <c r="C267" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="B267" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C267" s="3"/>
       <c r="D267" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F267" s="3"/>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B268" s="3" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C268" s="3"/>
-      <c r="D268" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
       <c r="F268" s="3"/>
+      <c r="H268" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C269" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B269" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C269" s="3"/>
       <c r="D269" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="F269" s="3"/>
+      <c r="I269" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B270" s="3"/>
       <c r="C270" s="3" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>7</v>
@@ -4398,89 +4482,80 @@
       <c r="E270" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F270" s="3"/>
+      <c r="F270" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B271" s="3"/>
       <c r="C271" s="3" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F271" s="3"/>
-      <c r="H271" t="s">
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B272" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C273" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C274" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C275" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F275" s="3"/>
+      <c r="H275" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="272" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C272" s="3" t="s">
+    <row r="276" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C276" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I272" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J272" s="9"/>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B273" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-    </row>
-    <row r="274" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B274" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F274" s="3"/>
-      <c r="I274" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J274" s="4"/>
-    </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B275" s="3"/>
-      <c r="C275" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I275" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B276" s="3"/>
-      <c r="C276" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>7</v>
@@ -4488,47 +4563,44 @@
       <c r="E276" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F276" s="3"/>
-      <c r="I276" t="s">
-        <v>130</v>
-      </c>
+      <c r="F276" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I276" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J276" s="9"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B277" s="3" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C277" s="3"/>
-      <c r="D277" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
       <c r="F277" s="3"/>
-      <c r="I277" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C278" s="3" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="278" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B278" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C278" s="3"/>
       <c r="D278" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F278" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I278" t="s">
-        <v>134</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F278" s="3"/>
+      <c r="I278" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J278" s="4"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B279" s="3"/>
       <c r="C279" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>7</v>
@@ -4536,194 +4608,193 @@
       <c r="E279" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F279" s="3"/>
-      <c r="I279" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J279" s="5"/>
+      <c r="F279" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I279" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B280" s="3"/>
       <c r="C280" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F280" s="3"/>
-      <c r="H280" t="s">
+      <c r="I280" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B281" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="3"/>
+      <c r="I281" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C282" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F282" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I282" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C283" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F283" s="3"/>
+      <c r="I283" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C284" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" s="3"/>
+      <c r="H284" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C281" s="3" t="s">
+    <row r="285" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C285" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D281" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E281" s="3" t="s">
+      <c r="D285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="F285" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I281" s="6" t="s">
+      <c r="I285" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J281" s="6"/>
-    </row>
-    <row r="282" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B282" s="3" t="s">
+      <c r="J285" s="6"/>
+    </row>
+    <row r="286" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B286" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F282" s="3"/>
-      <c r="I282" s="4" t="s">
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" s="3"/>
+      <c r="I286" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J282" s="4"/>
-    </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B283" s="3" t="s">
+      <c r="J286" s="4"/>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B287" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3" t="s">
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F283" s="3"/>
-      <c r="I283" s="7"/>
-      <c r="J283" s="7"/>
-    </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B284" s="10"/>
-      <c r="C284" s="10" t="s">
+      <c r="F287" s="3"/>
+      <c r="I287" s="7"/>
+      <c r="J287" s="7"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B288" s="10"/>
+      <c r="C288" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D284" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E284" s="10" t="s">
+      <c r="D288" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F284" s="10" t="s">
+      <c r="F288" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I284" s="6" t="s">
+      <c r="I288" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J284" s="6"/>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B285" s="10"/>
-      <c r="C285" s="10" t="s">
+      <c r="J288" s="6"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B289" s="10"/>
+      <c r="C289" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D285" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E285" s="10" t="s">
+      <c r="D289" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F285" s="10" t="s">
+      <c r="F289" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I285" s="4" t="s">
+      <c r="I289" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J285" s="4"/>
-    </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B286" s="10"/>
-      <c r="C286" s="10" t="s">
+      <c r="J289" s="4"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B290" s="10"/>
+      <c r="C290" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D286" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E286" s="10" t="s">
+      <c r="D290" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F286" s="10"/>
-    </row>
-    <row r="287" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B287" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E287" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F287" s="10"/>
-      <c r="I287" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J287" s="4"/>
-    </row>
-    <row r="288" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B288" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E288" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F288" s="10"/>
-      <c r="I288" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J288" s="4"/>
-    </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B289" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F289" s="10"/>
-      <c r="H289" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B290" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="F290" s="10"/>
-      <c r="I290" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J290" s="6"/>
     </row>
     <row r="291" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B291" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C291" s="10"/>
       <c r="D291" s="10" t="s">
@@ -4734,13 +4805,13 @@
       </c>
       <c r="F291" s="10"/>
       <c r="I291" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B292" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="10" t="s">
@@ -4750,12 +4821,14 @@
         <v>8</v>
       </c>
       <c r="F292" s="10"/>
-      <c r="I292" s="7"/>
-      <c r="J292" s="7"/>
+      <c r="I292" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J292" s="4"/>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B293" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10" t="s">
@@ -4765,152 +4838,155 @@
         <v>8</v>
       </c>
       <c r="F293" s="10"/>
-      <c r="I293" s="6" t="s">
+      <c r="H293" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B294" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" s="10"/>
+      <c r="I294" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J294" s="6"/>
+    </row>
+    <row r="295" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B295" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" s="10"/>
+      <c r="I295" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J295" s="4"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B296" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C296" s="10"/>
+      <c r="D296" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" s="10"/>
+      <c r="I296" s="7"/>
+      <c r="J296" s="7"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B297" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C297" s="10"/>
+      <c r="D297" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" s="10"/>
+      <c r="I297" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J293" s="6"/>
-    </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B294" s="3" t="s">
+      <c r="J297" s="6"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B298" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F294" s="3"/>
-      <c r="I294" s="4" t="s">
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298" s="3"/>
+      <c r="I298" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J294" s="4"/>
-    </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B295" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" s="3"/>
-    </row>
-    <row r="296" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B296" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F296" s="3"/>
-      <c r="I296" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J296" s="4"/>
-    </row>
-    <row r="297" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B297" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F297" s="3"/>
-      <c r="I297" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J297" s="4"/>
-    </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B298" s="3"/>
-      <c r="C298" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H298" t="s">
-        <v>143</v>
-      </c>
+      <c r="J298" s="4"/>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B299" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F299" s="3"/>
     </row>
     <row r="300" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B300" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C300" s="3"/>
-      <c r="D300" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D300" s="3"/>
       <c r="E300" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F300" s="3"/>
-      <c r="I300" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J300" s="11"/>
-    </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I300" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J300" s="4"/>
+    </row>
+    <row r="301" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B301" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C301" s="3"/>
-      <c r="D301" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D301" s="3"/>
       <c r="E301" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F301" s="3"/>
-      <c r="I301" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J301" s="11"/>
+      <c r="I301" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J301" s="4"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B302" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="D302" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F302" s="3"/>
-      <c r="I302" s="11"/>
-      <c r="J302" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H302" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B303" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
@@ -4920,13 +4996,10 @@
         <v>8</v>
       </c>
       <c r="F303" s="3"/>
-      <c r="I303" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B304" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
@@ -4936,13 +5009,14 @@
         <v>8</v>
       </c>
       <c r="F304" s="3"/>
-      <c r="I304" t="s">
-        <v>154</v>
-      </c>
+      <c r="I304" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J304" s="11"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B305" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
@@ -4952,91 +5026,93 @@
         <v>8</v>
       </c>
       <c r="F305" s="3"/>
-      <c r="I305" t="s">
-        <v>156</v>
-      </c>
+      <c r="I305" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J305" s="11"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B306" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="F306" s="3"/>
-      <c r="I306" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="307" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B307" s="3" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
+      <c r="D307" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E307" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F307" s="3"/>
       <c r="I307" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B308" s="3" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F308" s="3"/>
       <c r="I308" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B309" s="3"/>
-      <c r="C309" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B309" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C309" s="3"/>
       <c r="D309" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F309" s="3"/>
       <c r="I309" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B310" s="3"/>
-      <c r="C310" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B310" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C310" s="3"/>
       <c r="D310" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="F310" s="3"/>
-      <c r="H310" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I310" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B311" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -5045,24 +5121,29 @@
       </c>
       <c r="F311" s="3"/>
       <c r="I311" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B312" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
+      <c r="D312" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E312" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F312" s="3"/>
+      <c r="I312" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>7</v>
@@ -5070,372 +5151,375 @@
       <c r="E313" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F313" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H313" t="s">
-        <v>166</v>
+      <c r="F313" s="3"/>
+      <c r="I313" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B314" s="3"/>
       <c r="C314" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F314" s="3"/>
-      <c r="I314" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J314" s="4"/>
+      <c r="H314" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B315" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
+      <c r="E315" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F315" s="3"/>
       <c r="I315" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B316" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
+      <c r="E316" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F316" s="3"/>
-      <c r="I316" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J316" s="5"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B317" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D317" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="I317" t="s">
-        <v>185</v>
+      <c r="E317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H317" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B318" s="3"/>
       <c r="C318" s="3" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F318" s="3"/>
-      <c r="I318" t="s">
-        <v>186</v>
-      </c>
+      <c r="I318" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J318" s="4"/>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B319" s="3"/>
-      <c r="C319" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="B319" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
       <c r="F319" s="3"/>
       <c r="I319" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B320" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="I320" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J320" s="5"/>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B321" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="I321" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F322" s="3"/>
+      <c r="I322" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F323" s="3"/>
+      <c r="I323" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B320" s="3"/>
-      <c r="C320" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F320" s="3"/>
-      <c r="I320" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B321" s="3"/>
-      <c r="C321" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F321" s="3"/>
-      <c r="I321" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J321" s="5"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B322" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="H322" t="s">
-        <v>190</v>
-      </c>
-      <c r="I322" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J322" s="4"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B323" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F323" s="3"/>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B324" s="3"/>
       <c r="C324" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H324" t="s">
-        <v>104</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F324" s="3"/>
       <c r="I324" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F325" s="3"/>
-      <c r="I325" s="4"/>
-      <c r="J325" s="4"/>
+      <c r="I325" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J325" s="5"/>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B326" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C326" s="3"/>
-      <c r="D326" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
+      <c r="H326" t="s">
+        <v>190</v>
+      </c>
+      <c r="I326" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J326" s="4"/>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B327" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C327" s="3"/>
-      <c r="D327" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F327" s="3"/>
-      <c r="I327" s="12"/>
-      <c r="J327" s="12"/>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B328" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="D328" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F328" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H328" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="I328" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B329" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="D329" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E329" s="3"/>
+      <c r="E329" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F329" s="3"/>
-      <c r="H329" t="s">
-        <v>108</v>
-      </c>
-      <c r="I329" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E330" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E330" s="3"/>
       <c r="F330" s="3"/>
-      <c r="I330" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B331" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E331" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E331" s="3"/>
       <c r="F331" s="3"/>
+      <c r="I331" s="12"/>
+      <c r="J331" s="12"/>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B332" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
+      <c r="D332" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F332" s="3"/>
       <c r="H332" t="s">
         <v>107</v>
       </c>
-      <c r="I332" s="12"/>
-      <c r="J332" s="12"/>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B333" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E333" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E333" s="3"/>
       <c r="F333" s="3"/>
-      <c r="I333" t="s">
-        <v>111</v>
-      </c>
+      <c r="H333" t="s">
+        <v>108</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J333" s="4"/>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B334" s="3"/>
-      <c r="C334" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="B334" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>65</v>
+        <v>8</v>
+      </c>
+      <c r="F334" s="3"/>
+      <c r="I334" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B335" s="3"/>
-      <c r="C335" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="B335" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F335" s="3"/>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B336" s="3" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C336" s="3"/>
-      <c r="D336" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E336" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
       <c r="F336" s="3"/>
+      <c r="H336" t="s">
+        <v>107</v>
+      </c>
+      <c r="I336" s="12"/>
+      <c r="J336" s="12"/>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C337" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B337" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C337" s="3"/>
       <c r="D337" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F337" s="8" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="F337" s="3"/>
+      <c r="I337" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B338" s="3"/>
       <c r="C338" s="3" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>7</v>
@@ -5443,89 +5527,80 @@
       <c r="E338" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F338" s="3"/>
+      <c r="F338" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B339" s="3"/>
       <c r="C339" s="3" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F339" s="3"/>
-      <c r="H339" t="s">
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B340" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C341" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C342" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C343" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F343" s="3"/>
+      <c r="H343" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="340" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C340" s="3" t="s">
+    <row r="344" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C344" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E340" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I340" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J340" s="9"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B341" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-    </row>
-    <row r="342" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B342" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F342" s="3"/>
-      <c r="I342" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J342" s="4"/>
-    </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B343" s="3"/>
-      <c r="C343" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I343" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B344" s="3"/>
-      <c r="C344" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>7</v>
@@ -5533,47 +5608,44 @@
       <c r="E344" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F344" s="3"/>
-      <c r="I344" t="s">
-        <v>130</v>
-      </c>
+      <c r="F344" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I344" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J344" s="9"/>
     </row>
     <row r="345" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B345" s="3" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C345" s="3"/>
-      <c r="D345" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
       <c r="F345" s="3"/>
-      <c r="I345" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C346" s="3" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="346" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B346" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C346" s="3"/>
       <c r="D346" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F346" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I346" t="s">
-        <v>134</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F346" s="3"/>
+      <c r="I346" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J346" s="4"/>
     </row>
     <row r="347" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B347" s="3"/>
       <c r="C347" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>7</v>
@@ -5581,194 +5653,193 @@
       <c r="E347" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F347" s="3"/>
-      <c r="I347" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J347" s="5"/>
+      <c r="F347" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I347" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B348" s="3"/>
       <c r="C348" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F348" s="3"/>
-      <c r="H348" t="s">
+      <c r="I348" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B349" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349" s="3"/>
+      <c r="I349" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C350" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I350" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C351" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F351" s="3"/>
+      <c r="I351" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J351" s="5"/>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C352" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F352" s="3"/>
+      <c r="H352" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C349" s="3" t="s">
+    <row r="353" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C353" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D349" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E349" s="3" t="s">
+      <c r="D353" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F349" s="3" t="s">
+      <c r="F353" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I349" s="6" t="s">
+      <c r="I353" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J349" s="6"/>
-    </row>
-    <row r="350" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B350" s="3" t="s">
+      <c r="J353" s="6"/>
+    </row>
+    <row r="354" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B354" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
-      <c r="E350" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F350" s="3"/>
-      <c r="I350" s="4" t="s">
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F354" s="3"/>
+      <c r="I354" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J350" s="4"/>
-    </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B351" s="3" t="s">
+      <c r="J354" s="4"/>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B355" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
-      <c r="E351" s="3" t="s">
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F351" s="3"/>
-      <c r="I351" s="7"/>
-      <c r="J351" s="7"/>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B352" s="10"/>
-      <c r="C352" s="10" t="s">
+      <c r="F355" s="3"/>
+      <c r="I355" s="7"/>
+      <c r="J355" s="7"/>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B356" s="10"/>
+      <c r="C356" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D352" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E352" s="10" t="s">
+      <c r="D356" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F352" s="10" t="s">
+      <c r="F356" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I352" s="6" t="s">
+      <c r="I356" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J352" s="6"/>
-    </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B353" s="10"/>
-      <c r="C353" s="10" t="s">
+      <c r="J356" s="6"/>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B357" s="10"/>
+      <c r="C357" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D353" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E353" s="10" t="s">
+      <c r="D357" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F353" s="10" t="s">
+      <c r="F357" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I353" s="4" t="s">
+      <c r="I357" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J353" s="4"/>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B354" s="10"/>
-      <c r="C354" s="10" t="s">
+      <c r="J357" s="4"/>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B358" s="10"/>
+      <c r="C358" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D354" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E354" s="10" t="s">
+      <c r="D358" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F354" s="10"/>
-    </row>
-    <row r="355" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B355" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E355" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F355" s="10"/>
-      <c r="I355" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J355" s="4"/>
-    </row>
-    <row r="356" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B356" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C356" s="10"/>
-      <c r="D356" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E356" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F356" s="10"/>
-      <c r="I356" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J356" s="4"/>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B357" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E357" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F357" s="10"/>
-      <c r="H357" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B358" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C358" s="10"/>
-      <c r="D358" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E358" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="F358" s="10"/>
-      <c r="I358" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J358" s="6"/>
     </row>
     <row r="359" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B359" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C359" s="10"/>
       <c r="D359" s="10" t="s">
@@ -5779,13 +5850,13 @@
       </c>
       <c r="F359" s="10"/>
       <c r="I359" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B360" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C360" s="10"/>
       <c r="D360" s="10" t="s">
@@ -5795,12 +5866,14 @@
         <v>8</v>
       </c>
       <c r="F360" s="10"/>
-      <c r="I360" s="7"/>
-      <c r="J360" s="7"/>
+      <c r="I360" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J360" s="4"/>
     </row>
     <row r="361" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B361" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C361" s="10"/>
       <c r="D361" s="10" t="s">
@@ -5810,152 +5883,155 @@
         <v>8</v>
       </c>
       <c r="F361" s="10"/>
-      <c r="I361" s="6" t="s">
+      <c r="H361" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="362" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B362" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C362" s="10"/>
+      <c r="D362" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362" s="10"/>
+      <c r="I362" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J362" s="6"/>
+    </row>
+    <row r="363" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B363" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C363" s="10"/>
+      <c r="D363" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363" s="10"/>
+      <c r="I363" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J363" s="4"/>
+    </row>
+    <row r="364" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B364" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C364" s="10"/>
+      <c r="D364" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364" s="10"/>
+      <c r="I364" s="7"/>
+      <c r="J364" s="7"/>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B365" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C365" s="10"/>
+      <c r="D365" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F365" s="10"/>
+      <c r="I365" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J361" s="6"/>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B362" s="3" t="s">
+      <c r="J365" s="6"/>
+    </row>
+    <row r="366" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B366" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F362" s="3"/>
-      <c r="I362" s="4" t="s">
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F366" s="3"/>
+      <c r="I366" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J362" s="4"/>
-    </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B363" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F363" s="3"/>
-    </row>
-    <row r="364" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B364" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F364" s="3"/>
-      <c r="I364" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J364" s="4"/>
-    </row>
-    <row r="365" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B365" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F365" s="3"/>
-      <c r="I365" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J365" s="4"/>
-    </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B366" s="3"/>
-      <c r="C366" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E366" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H366" t="s">
-        <v>143</v>
-      </c>
+      <c r="J366" s="4"/>
     </row>
     <row r="367" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B367" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F367" s="3"/>
     </row>
     <row r="368" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B368" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C368" s="3"/>
-      <c r="D368" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F368" s="3"/>
-      <c r="I368" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J368" s="11"/>
-    </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I368" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J368" s="4"/>
+    </row>
+    <row r="369" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B369" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C369" s="3"/>
-      <c r="D369" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F369" s="3"/>
-      <c r="I369" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J369" s="11"/>
+      <c r="I369" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J369" s="4"/>
     </row>
     <row r="370" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B370" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="D370" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F370" s="3"/>
-      <c r="I370" s="11"/>
-      <c r="J370" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H370" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="371" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B371" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3" t="s">
@@ -5965,13 +6041,10 @@
         <v>8</v>
       </c>
       <c r="F371" s="3"/>
-      <c r="I371" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="372" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B372" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C372" s="3"/>
       <c r="D372" s="3" t="s">
@@ -5981,13 +6054,14 @@
         <v>8</v>
       </c>
       <c r="F372" s="3"/>
-      <c r="I372" t="s">
-        <v>154</v>
-      </c>
+      <c r="I372" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J372" s="11"/>
     </row>
     <row r="373" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B373" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3" t="s">
@@ -5997,45 +6071,45 @@
         <v>8</v>
       </c>
       <c r="F373" s="3"/>
-      <c r="I373" t="s">
-        <v>156</v>
-      </c>
+      <c r="I373" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J373" s="11"/>
     </row>
     <row r="374" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B374" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="F374" s="3"/>
-      <c r="I374" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="375" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B375" s="3" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F375" s="3"/>
       <c r="I375" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="376" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B376" s="3" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
@@ -6046,140 +6120,204 @@
       </c>
       <c r="F376" s="3"/>
       <c r="I376" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="377" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B377" s="3" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C377" s="3"/>
-      <c r="D377" s="3"/>
+      <c r="D377" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E377" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F377" s="3"/>
       <c r="I377" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="378" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B378" s="3" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C378" s="3"/>
-      <c r="D378" s="3"/>
+      <c r="D378" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E378" s="3" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="F378" s="3"/>
-      <c r="H378" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I378" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="379" spans="2:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B379" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F379" s="3"/>
       <c r="I379" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C380" s="3"/>
+      <c r="D380" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="3"/>
+      <c r="I380" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B381" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="3"/>
+      <c r="I381" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B382" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C382" s="3"/>
+      <c r="D382" s="3"/>
+      <c r="E382" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F382" s="3"/>
+      <c r="H382" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B383" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" s="3"/>
+      <c r="I383" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="H381" t="s">
+    <row r="385" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H385" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I382" s="4" t="s">
+    <row r="386" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I386" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J382" s="4"/>
-    </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I383" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="I384" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J384" s="5"/>
-    </row>
-    <row r="385" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="I385" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="386" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="I386" t="s">
-        <v>186</v>
-      </c>
+      <c r="J386" s="4"/>
     </row>
     <row r="387" spans="8:10" x14ac:dyDescent="0.15">
       <c r="I387" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="388" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I388" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J388" s="5"/>
+    </row>
+    <row r="389" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I389" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="390" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I390" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="391" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I391" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="388" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="I388" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="389" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="I389" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J389" s="5"/>
-    </row>
-    <row r="390" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="H390" t="s">
-        <v>190</v>
-      </c>
-      <c r="I390" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J390" s="4"/>
-    </row>
-    <row r="391" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="H391" t="s">
-        <v>57</v>
-      </c>
-      <c r="I391" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J391" s="4"/>
     </row>
     <row r="392" spans="8:10" x14ac:dyDescent="0.15">
       <c r="I392" t="s">
-        <v>195</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="393" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I393" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J393" s="5"/>
     </row>
     <row r="394" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H394" t="s">
-        <v>196</v>
-      </c>
-      <c r="I394" t="s">
-        <v>197</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I394" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J394" s="4"/>
     </row>
     <row r="395" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H395" t="s">
+        <v>57</v>
+      </c>
+      <c r="I395" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J395" s="4"/>
+    </row>
+    <row r="396" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="I396" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="398" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H398" t="s">
+        <v>196</v>
+      </c>
+      <c r="I398" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="399" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H399" t="s">
         <v>192</v>
       </c>
-      <c r="I395" s="4" t="s">
+      <c r="I399" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J395" s="4"/>
+      <c r="J399" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
